--- a/src/out/rank/all-ranking-cite.xlsx
+++ b/src/out/rank/all-ranking-cite.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1258"/>
+  <dimension ref="A1:G1257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15019,7 +15019,7 @@
         </is>
       </c>
       <c r="B584" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -15031,20 +15031,20 @@
         <v>0</v>
       </c>
       <c r="F584" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G584" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
         <is>
-          <t>distribute system security</t>
+          <t>embed and cyber-physical system</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>0</v>
@@ -15056,20 +15056,20 @@
         <v>0</v>
       </c>
       <c r="F585" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
         <is>
-          <t>embed and cyber-physical system</t>
+          <t>network</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C586" t="n">
         <v>0</v>
@@ -15084,17 +15084,17 @@
         <v>1</v>
       </c>
       <c r="G586" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
         <is>
-          <t>network</t>
+          <t>network property</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
         <v>0</v>
@@ -15109,13 +15109,13 @@
         <v>1</v>
       </c>
       <c r="G587" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
         <is>
-          <t>network property</t>
+          <t>network reliability</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -15140,11 +15140,11 @@
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
         <is>
-          <t>network reliability</t>
+          <t>tamper resistance</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C589" t="n">
         <v>0</v>
@@ -15156,7 +15156,7 @@
         <v>0</v>
       </c>
       <c r="F589" t="n">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="G589" t="n">
         <v>0</v>
@@ -15165,7 +15165,7 @@
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
         <is>
-          <t>tamper resistance</t>
+          <t>scientific publication</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -15190,11 +15190,11 @@
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
         <is>
-          <t>scientific publication</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C591" t="n">
         <v>0</v>
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="F591" t="n">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="G591" t="n">
         <v>0</v>
@@ -15215,7 +15215,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>watermarking</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -15240,7 +15240,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>watermarking</t>
+          <t>plagiarism</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -15265,11 +15265,11 @@
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
         <is>
-          <t>plagiarism</t>
+          <t>augment reality</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C594" t="n">
         <v>0</v>
@@ -15281,7 +15281,7 @@
         <v>0</v>
       </c>
       <c r="F594" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G594" t="n">
         <v>0</v>
@@ -15290,7 +15290,7 @@
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
         <is>
-          <t>augment reality</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -15315,11 +15315,11 @@
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>cloud compute security</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
         <v>0</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="F596" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G596" t="n">
         <v>0</v>
@@ -15340,11 +15340,11 @@
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
         <is>
-          <t>cloud compute security</t>
+          <t>data privacy</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C597" t="n">
         <v>0</v>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
       <c r="F597" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="G597" t="n">
         <v>0</v>
@@ -15365,11 +15365,11 @@
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>data privacy</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>0</v>
@@ -15381,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="F598" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G598" t="n">
         <v>0</v>
@@ -15390,11 +15390,11 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>0</v>
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="F599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G599" t="n">
         <v>0</v>
@@ -15415,7 +15415,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>attack</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -15440,7 +15440,7 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>attack</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -15465,7 +15465,7 @@
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>electronic vote</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -15490,11 +15490,11 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>electronic vote</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C603" t="n">
         <v>0</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="F603" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G603" t="n">
         <v>0</v>
@@ -15515,11 +15515,11 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>permissioned</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C604" t="n">
         <v>0</v>
@@ -15531,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="F604" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
@@ -15540,7 +15540,7 @@
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
         <is>
-          <t>permissioned</t>
+          <t>permissionless blockchain</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -15565,7 +15565,7 @@
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
         <is>
-          <t>permissionless blockchain</t>
+          <t>pob</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -15590,11 +15590,11 @@
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
         <is>
-          <t>pob</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C607" t="n">
         <v>0</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="F607" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G607" t="n">
         <v>0</v>
@@ -15615,7 +15615,7 @@
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>natural gas industry</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -15640,7 +15640,7 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>natural gas industry</t>
+          <t>natural gas</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -15665,11 +15665,11 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>natural gas</t>
+          <t>ledger</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C610" t="n">
         <v>0</v>
@@ -15681,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="F610" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G610" t="n">
         <v>0</v>
@@ -15690,11 +15690,11 @@
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
         <is>
-          <t>ledger</t>
+          <t>communication security</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C611" t="n">
         <v>0</v>
@@ -15709,13 +15709,13 @@
         <v>0</v>
       </c>
       <c r="G611" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>communication security</t>
+          <t>game</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -15731,20 +15731,20 @@
         <v>0</v>
       </c>
       <c r="F612" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G612" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>decision make</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C613" t="n">
         <v>0</v>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="F613" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G613" t="n">
         <v>0</v>
@@ -15765,7 +15765,7 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>decision make</t>
+          <t>machine learn algorithm</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -15790,11 +15790,11 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>machine learn algorithm</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C615" t="n">
         <v>0</v>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="F615" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="G615" t="n">
         <v>0</v>
@@ -15815,7 +15815,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>taxonomy</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -15840,11 +15840,11 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>taxonomy</t>
+          <t>production</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -15856,7 +15856,7 @@
         <v>0</v>
       </c>
       <c r="F617" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G617" t="n">
         <v>0</v>
@@ -15865,11 +15865,11 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>data collection</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C618" t="n">
         <v>0</v>
@@ -15881,7 +15881,7 @@
         <v>0</v>
       </c>
       <c r="F618" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G618" t="n">
         <v>0</v>
@@ -15890,11 +15890,11 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>data collection</t>
+          <t>success factor</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C619" t="n">
         <v>0</v>
@@ -15906,7 +15906,7 @@
         <v>0</v>
       </c>
       <c r="F619" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G619" t="n">
         <v>0</v>
@@ -15915,7 +15915,7 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>success factor</t>
+          <t>pharmaceutical industry</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -15940,7 +15940,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>pharmaceutical industry</t>
+          <t>task analysis</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -15965,7 +15965,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>task analysis</t>
+          <t>currency</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -15990,11 +15990,11 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>stakeholder</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>0</v>
@@ -16006,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="F623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G623" t="n">
         <v>0</v>
@@ -16015,11 +16015,11 @@
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>sociology</t>
         </is>
       </c>
       <c r="B624" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C624" t="n">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="F624" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="G624" t="n">
         <v>0</v>
@@ -16040,7 +16040,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>sociology</t>
+          <t>statistic</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -16065,11 +16065,11 @@
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>delay</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C626" t="n">
         <v>0</v>
@@ -16081,20 +16081,20 @@
         <v>0</v>
       </c>
       <c r="F626" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>delay</t>
+          <t>automotive engineer</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C627" t="n">
         <v>0</v>
@@ -16106,16 +16106,16 @@
         <v>0</v>
       </c>
       <c r="F627" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>automotive engineer</t>
+          <t>automobile</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -16140,7 +16140,7 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>automobile</t>
+          <t>smart manufacture</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -16165,7 +16165,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>smart manufacture</t>
+          <t>production facility</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -16190,7 +16190,7 @@
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>production facility</t>
+          <t>next generation network</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -16215,11 +16215,11 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>next generation network</t>
+          <t>classification algorithm</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G632" t="n">
         <v>0</v>
@@ -16240,11 +16240,11 @@
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
         <is>
-          <t>classification algorithm</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
         <v>0</v>
@@ -16256,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="F633" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G633" t="n">
         <v>0</v>
@@ -16265,11 +16265,11 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>syntactics</t>
         </is>
       </c>
       <c r="B634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C634" t="n">
         <v>0</v>
@@ -16281,7 +16281,7 @@
         <v>0</v>
       </c>
       <c r="F634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G634" t="n">
         <v>0</v>
@@ -16290,11 +16290,11 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>syntactics</t>
+          <t>radiofrequency identification</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
         <v>0</v>
@@ -16306,7 +16306,7 @@
         <v>0</v>
       </c>
       <c r="F635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G635" t="n">
         <v>0</v>
@@ -16315,11 +16315,11 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>radiofrequency identification</t>
+          <t>ehr</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
         <v>0</v>
@@ -16331,7 +16331,7 @@
         <v>0</v>
       </c>
       <c r="F636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G636" t="n">
         <v>0</v>
@@ -16340,7 +16340,7 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>ehr</t>
+          <t>phr</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -16365,11 +16365,11 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>phr</t>
+          <t>biomedical image</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C638" t="n">
         <v>0</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="F638" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G638" t="n">
         <v>0</v>
@@ -16390,11 +16390,11 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>biomedical image</t>
+          <t>vegetation</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>0</v>
@@ -16406,7 +16406,7 @@
         <v>0</v>
       </c>
       <c r="F639" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G639" t="n">
         <v>0</v>
@@ -16415,7 +16415,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>vegetation</t>
+          <t>power market</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -16440,7 +16440,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>power market</t>
+          <t>power system stability</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -16465,7 +16465,7 @@
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>power system stability</t>
+          <t>distribute power generation</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -16490,7 +16490,7 @@
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
         <is>
-          <t>distribute power generation</t>
+          <t>range proof</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -16515,7 +16515,7 @@
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>range proof</t>
+          <t>preserve privacy</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -16540,7 +16540,7 @@
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>preserve privacy</t>
+          <t>observer</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -16565,7 +16565,7 @@
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>observer</t>
+          <t>hardware architecture</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -16590,7 +16590,7 @@
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>hardware architecture</t>
+          <t>heterogeneous hardware</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -16615,7 +16615,7 @@
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
         <is>
-          <t>heterogeneous hardware</t>
+          <t>fpga</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -16640,7 +16640,7 @@
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>fpga</t>
+          <t>gpu</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -16665,7 +16665,7 @@
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>gpu</t>
+          <t>asic</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -16690,7 +16690,7 @@
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>asic</t>
+          <t>cpu</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -16715,7 +16715,7 @@
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>cpu</t>
+          <t>energetics</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -16740,7 +16740,7 @@
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>energetics</t>
+          <t>energy internet</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -16765,7 +16765,7 @@
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>energy internet</t>
+          <t>energy market</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -16790,11 +16790,11 @@
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
         <is>
-          <t>energy market</t>
+          <t>energy exchange</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C655" t="n">
         <v>0</v>
@@ -16809,17 +16809,17 @@
         <v>0</v>
       </c>
       <c r="G655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>energy exchange</t>
+          <t>carbon certificate</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C656" t="n">
         <v>0</v>
@@ -16834,17 +16834,17 @@
         <v>0</v>
       </c>
       <c r="G656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>carbon certificate</t>
+          <t>explosive</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -16856,7 +16856,7 @@
         <v>0</v>
       </c>
       <c r="F657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G657" t="n">
         <v>0</v>
@@ -16865,11 +16865,11 @@
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>explosive</t>
+          <t>do attack</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C658" t="n">
         <v>0</v>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="F658" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G658" t="n">
         <v>0</v>
@@ -16890,7 +16890,7 @@
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>do attack</t>
+          <t>eclipse attack</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -16915,7 +16915,7 @@
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>eclipse attack</t>
+          <t>sybil</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -16940,11 +16940,11 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>sybil</t>
+          <t>radiology</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C661" t="n">
         <v>0</v>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="F661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G661" t="n">
         <v>0</v>
@@ -16965,11 +16965,11 @@
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>radiology</t>
+          <t>ips2</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C662" t="n">
         <v>0</v>
@@ -16981,7 +16981,7 @@
         <v>0</v>
       </c>
       <c r="F662" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G662" t="n">
         <v>0</v>
@@ -16990,11 +16990,11 @@
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
         <is>
-          <t>ips2</t>
+          <t xml:space="preserve">internet of thing </t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C663" t="n">
         <v>0</v>
@@ -17006,20 +17006,20 @@
         <v>0</v>
       </c>
       <c r="F663" t="n">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="G663" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">internet of thing </t>
+          <t>energy decentralisation</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="C664" t="n">
         <v>0</v>
@@ -17031,16 +17031,16 @@
         <v>0</v>
       </c>
       <c r="F664" t="n">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="G664" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>energy decentralisation</t>
+          <t>peer-to-peer energy trade</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -17065,7 +17065,7 @@
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer energy trade</t>
+          <t>prosumer</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -17090,7 +17090,7 @@
     <row r="667">
       <c r="A667" s="1" t="inlineStr">
         <is>
-          <t>prosumer</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -17115,11 +17115,11 @@
     <row r="668">
       <c r="A668" s="1" t="inlineStr">
         <is>
-          <t>renewable energy</t>
+          <t xml:space="preserve">distribute ledger technology </t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="C668" t="n">
         <v>0</v>
@@ -17131,20 +17131,20 @@
         <v>0</v>
       </c>
       <c r="F668" t="n">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">distribute ledger technology </t>
+          <t>use case</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C669" t="n">
         <v>0</v>
@@ -17159,13 +17159,13 @@
         <v>22</v>
       </c>
       <c r="G669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="inlineStr">
         <is>
-          <t>use case</t>
+          <t xml:space="preserve">project bank account </t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -17190,7 +17190,7 @@
     <row r="671">
       <c r="A671" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">project bank account </t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -17215,7 +17215,7 @@
     <row r="672">
       <c r="A672" s="1" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>compliance</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -17240,11 +17240,11 @@
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>compliance</t>
+          <t>data management</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
         <v>0</v>
@@ -17256,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="F673" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G673" t="n">
         <v>0</v>
@@ -17265,7 +17265,7 @@
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>data management</t>
+          <t>smart wallet</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -17290,7 +17290,7 @@
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>smart wallet</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -17315,7 +17315,7 @@
     <row r="676">
       <c r="A676" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>decentralize system</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -17340,7 +17340,7 @@
     <row r="677">
       <c r="A677" s="1" t="inlineStr">
         <is>
-          <t>decentralize system</t>
+          <t>proof-of-credibility</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -17365,11 +17365,11 @@
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>proof-of-credibility</t>
+          <t>healthcare technology</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C678" t="n">
         <v>0</v>
@@ -17381,7 +17381,7 @@
         <v>0</v>
       </c>
       <c r="F678" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G678" t="n">
         <v>0</v>
@@ -17390,7 +17390,7 @@
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>healthcare technology</t>
+          <t>health informatics</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -17415,7 +17415,7 @@
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>health informatics</t>
+          <t>medical licensure</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -17440,7 +17440,7 @@
     <row r="681">
       <c r="A681" s="1" t="inlineStr">
         <is>
-          <t>medical licensure</t>
+          <t>genomics</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -17465,11 +17465,11 @@
     <row r="682">
       <c r="A682" s="1" t="inlineStr">
         <is>
-          <t>genomics</t>
+          <t>electronic health record</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C682" t="n">
         <v>0</v>
@@ -17481,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="F682" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G682" t="n">
         <v>0</v>
@@ -17490,11 +17490,11 @@
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>electronic health record</t>
+          <t>big data analytics</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>0</v>
@@ -17506,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="F683" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G683" t="n">
         <v>0</v>
@@ -17515,7 +17515,7 @@
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>big data analytics</t>
+          <t>fintech</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -17540,11 +17540,11 @@
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>fintech</t>
+          <t>referential integrity</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C685" t="n">
         <v>0</v>
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="F685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G685" t="n">
         <v>0</v>
@@ -17565,7 +17565,7 @@
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>referential integrity</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -17590,7 +17590,7 @@
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>data access</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -17615,7 +17615,7 @@
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>data access</t>
+          <t>data store</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -17640,11 +17640,11 @@
     <row r="689">
       <c r="A689" s="1" t="inlineStr">
         <is>
-          <t>data store</t>
+          <t>access control</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C689" t="n">
         <v>0</v>
@@ -17656,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="F689" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G689" t="n">
         <v>0</v>
@@ -17665,11 +17665,11 @@
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>access control</t>
+          <t>xacml</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C690" t="n">
         <v>0</v>
@@ -17681,7 +17681,7 @@
         <v>0</v>
       </c>
       <c r="F690" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G690" t="n">
         <v>0</v>
@@ -17690,7 +17690,7 @@
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>xacml</t>
+          <t>peer-to-peer network</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -17715,7 +17715,7 @@
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer network</t>
+          <t>development process</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -17740,7 +17740,7 @@
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>development process</t>
+          <t>attendance management system</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -17765,7 +17765,7 @@
     <row r="694">
       <c r="A694" s="1" t="inlineStr">
         <is>
-          <t>attendance management system</t>
+          <t>unforgeable</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -17790,11 +17790,11 @@
     <row r="695">
       <c r="A695" s="1" t="inlineStr">
         <is>
-          <t>unforgeable</t>
+          <t>coordination</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>0</v>
@@ -17809,17 +17809,17 @@
         <v>0</v>
       </c>
       <c r="G695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="inlineStr">
         <is>
-          <t>coordination</t>
+          <t>linda on ethereum</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
         <v>0</v>
@@ -17834,13 +17834,13 @@
         <v>0</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>linda on ethereum</t>
+          <t>linda on fabric</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -17865,7 +17865,7 @@
     <row r="698">
       <c r="A698" s="1" t="inlineStr">
         <is>
-          <t>linda on fabric</t>
+          <t>linda on corda</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -17890,11 +17890,11 @@
     <row r="699">
       <c r="A699" s="1" t="inlineStr">
         <is>
-          <t>linda on corda</t>
+          <t>sealed-bid auction</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C699" t="n">
         <v>0</v>
@@ -17906,7 +17906,7 @@
         <v>0</v>
       </c>
       <c r="F699" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G699" t="n">
         <v>0</v>
@@ -17915,11 +17915,11 @@
     <row r="700">
       <c r="A700" s="1" t="inlineStr">
         <is>
-          <t>sealed-bid auction</t>
+          <t>energy consumption</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C700" t="n">
         <v>0</v>
@@ -17931,20 +17931,20 @@
         <v>0</v>
       </c>
       <c r="F700" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G700" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="inlineStr">
         <is>
-          <t>energy consumption</t>
+          <t>software production</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C701" t="n">
         <v>0</v>
@@ -17956,16 +17956,16 @@
         <v>0</v>
       </c>
       <c r="F701" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G701" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="inlineStr">
         <is>
-          <t>software production</t>
+          <t>software development integrity</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -17990,7 +17990,7 @@
     <row r="703">
       <c r="A703" s="1" t="inlineStr">
         <is>
-          <t>software development integrity</t>
+          <t>test-driven software development</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -18015,11 +18015,11 @@
     <row r="704">
       <c r="A704" s="1" t="inlineStr">
         <is>
-          <t>test-driven software development</t>
+          <t>sustainability</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C704" t="n">
         <v>0</v>
@@ -18031,20 +18031,20 @@
         <v>0</v>
       </c>
       <c r="F704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G704" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>sustainability</t>
+          <t>the protection of digital copyright</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
         <v>0</v>
@@ -18056,16 +18056,16 @@
         <v>0</v>
       </c>
       <c r="F705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G705" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>the protection of digital copyright</t>
+          <t>time stamp</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -18090,7 +18090,7 @@
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>time stamp</t>
+          <t>hash</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -18115,11 +18115,11 @@
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>hash</t>
+          <t>deep learning</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>0</v>
@@ -18131,7 +18131,7 @@
         <v>0</v>
       </c>
       <c r="F708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G708" t="n">
         <v>0</v>
@@ -18140,7 +18140,7 @@
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>deep learning</t>
+          <t>decentralize consensus</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -18165,11 +18165,11 @@
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>decentralize consensus</t>
+          <t>hyperledger</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C710" t="n">
         <v>0</v>
@@ -18184,17 +18184,17 @@
         <v>0</v>
       </c>
       <c r="G710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>hyperledger</t>
+          <t>electronic medical record</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
         <v>0</v>
@@ -18209,13 +18209,13 @@
         <v>0</v>
       </c>
       <c r="G711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>electronic medical record</t>
+          <t>emr</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -18240,7 +18240,7 @@
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>emr</t>
+          <t>pharma</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -18265,7 +18265,7 @@
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>pharma</t>
+          <t>insurance</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -18290,7 +18290,7 @@
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>insurance</t>
+          <t>health information exchange</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -18315,7 +18315,7 @@
     <row r="716">
       <c r="A716" s="1" t="inlineStr">
         <is>
-          <t>health information exchange</t>
+          <t>pharmacogenomics</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -18340,7 +18340,7 @@
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>pharmacogenomics</t>
+          <t>precision medicine</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -18365,11 +18365,11 @@
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>precision medicine</t>
+          <t>space information network</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C718" t="n">
         <v>0</v>
@@ -18381,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="F718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G718" t="n">
         <v>0</v>
@@ -18390,11 +18390,11 @@
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>space information network</t>
+          <t>decentralize infrastructure</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
         <v>0</v>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="F719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G719" t="n">
         <v>0</v>
@@ -18415,7 +18415,7 @@
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>decentralize infrastructure</t>
+          <t>certification authority</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -18440,7 +18440,7 @@
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>certification authority</t>
+          <t>blockstack infrastructure</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -18465,7 +18465,7 @@
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>blockstack infrastructure</t>
+          <t>role-playing game</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -18490,7 +18490,7 @@
     <row r="723">
       <c r="A723" s="1" t="inlineStr">
         <is>
-          <t>role-playing game</t>
+          <t>flip learn</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -18515,7 +18515,7 @@
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>flip learn</t>
+          <t>3d animation teach material</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -18540,7 +18540,7 @@
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>3d animation teach material</t>
+          <t>security issue</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -18565,7 +18565,7 @@
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>security issue</t>
+          <t>double spend</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -18590,7 +18590,7 @@
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>double spend</t>
+          <t>mine attack</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -18615,7 +18615,7 @@
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>mine attack</t>
+          <t>distribute technique</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -18640,7 +18640,7 @@
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>distribute technique</t>
+          <t>cybercrime</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -18665,7 +18665,7 @@
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>cybercrime</t>
+          <t xml:space="preserve">critical national infrastructure </t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -18690,7 +18690,7 @@
     <row r="731">
       <c r="A731" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">critical national infrastructure </t>
+          <t>scada</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -18715,7 +18715,7 @@
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>scada</t>
+          <t>threat factor</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -18740,7 +18740,7 @@
     <row r="733">
       <c r="A733" s="1" t="inlineStr">
         <is>
-          <t>threat factor</t>
+          <t>red team</t>
         </is>
       </c>
       <c r="B733" t="n">
@@ -18765,7 +18765,7 @@
     <row r="734">
       <c r="A734" s="1" t="inlineStr">
         <is>
-          <t>red team</t>
+          <t>cyberwarfare</t>
         </is>
       </c>
       <c r="B734" t="n">
@@ -18790,7 +18790,7 @@
     <row r="735">
       <c r="A735" s="1" t="inlineStr">
         <is>
-          <t>cyberwarfare</t>
+          <t>data breach</t>
         </is>
       </c>
       <c r="B735" t="n">
@@ -18815,7 +18815,7 @@
     <row r="736">
       <c r="A736" s="1" t="inlineStr">
         <is>
-          <t>data breach</t>
+          <t>cyber operation</t>
         </is>
       </c>
       <c r="B736" t="n">
@@ -18840,11 +18840,11 @@
     <row r="737">
       <c r="A737" s="1" t="inlineStr">
         <is>
-          <t>cyber operation</t>
+          <t>aesthetic</t>
         </is>
       </c>
       <c r="B737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C737" t="n">
         <v>0</v>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="F737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G737" t="n">
         <v>0</v>
@@ -18865,7 +18865,7 @@
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>aesthetic</t>
+          <t>critical technical practice</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -18890,7 +18890,7 @@
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>critical technical practice</t>
+          <t>interactional aesthetic</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -18915,11 +18915,11 @@
     <row r="740">
       <c r="A740" s="1" t="inlineStr">
         <is>
-          <t>interactional aesthetic</t>
+          <t>microlending</t>
         </is>
       </c>
       <c r="B740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C740" t="n">
         <v>0</v>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
       <c r="F740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G740" t="n">
         <v>0</v>
@@ -18940,7 +18940,7 @@
     <row r="741">
       <c r="A741" s="1" t="inlineStr">
         <is>
-          <t>microlending</t>
+          <t>naive bay classifier</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -18965,7 +18965,7 @@
     <row r="742">
       <c r="A742" s="1" t="inlineStr">
         <is>
-          <t>naive bay classifier</t>
+          <t>hyperledger fabric</t>
         </is>
       </c>
       <c r="B742" t="n">
@@ -18990,7 +18990,7 @@
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>hyperledger fabric</t>
+          <t>learn content creation</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -19015,7 +19015,7 @@
     <row r="744">
       <c r="A744" s="1" t="inlineStr">
         <is>
-          <t>learn content creation</t>
+          <t>instructional design</t>
         </is>
       </c>
       <c r="B744" t="n">
@@ -19040,7 +19040,7 @@
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>instructional design</t>
+          <t>microgrid</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -19065,7 +19065,7 @@
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>microgrid</t>
+          <t>distribute mobility service</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -19090,7 +19090,7 @@
     <row r="747">
       <c r="A747" s="1" t="inlineStr">
         <is>
-          <t>distribute mobility service</t>
+          <t>autonomous vehicle</t>
         </is>
       </c>
       <c r="B747" t="n">
@@ -19115,7 +19115,7 @@
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
         <is>
-          <t>autonomous vehicle</t>
+          <t>ridesharing</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -19140,7 +19140,7 @@
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>ridesharing</t>
+          <t>distribute generation</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -19165,7 +19165,7 @@
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>distribute generation</t>
+          <t>photovoltaic</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -19190,7 +19190,7 @@
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>photovoltaic</t>
+          <t>electric vehicle</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -19215,7 +19215,7 @@
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>electric vehicle</t>
+          <t>solar energy</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -19240,7 +19240,7 @@
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>solar energy</t>
+          <t>electric grid</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -19265,11 +19265,11 @@
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>electric grid</t>
+          <t>performance model</t>
         </is>
       </c>
       <c r="B754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C754" t="n">
         <v>0</v>
@@ -19281,7 +19281,7 @@
         <v>0</v>
       </c>
       <c r="F754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G754" t="n">
         <v>0</v>
@@ -19290,7 +19290,7 @@
     <row r="755">
       <c r="A755" s="1" t="inlineStr">
         <is>
-          <t>performance model</t>
+          <t>fork-join queue network</t>
         </is>
       </c>
       <c r="B755" t="n">
@@ -19315,7 +19315,7 @@
     <row r="756">
       <c r="A756" s="1" t="inlineStr">
         <is>
-          <t>fork-join queue network</t>
+          <t>mean-value analysis</t>
         </is>
       </c>
       <c r="B756" t="n">
@@ -19340,11 +19340,11 @@
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>mean-value analysis</t>
+          <t>industrial iot</t>
         </is>
       </c>
       <c r="B757" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C757" t="n">
         <v>0</v>
@@ -19356,20 +19356,20 @@
         <v>0</v>
       </c>
       <c r="F757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G757" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>industrial iot</t>
+          <t>temporal epistemic logic with probability</t>
         </is>
       </c>
       <c r="B758" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C758" t="n">
         <v>0</v>
@@ -19384,13 +19384,13 @@
         <v>0</v>
       </c>
       <c r="G758" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>temporal epistemic logic with probability</t>
+          <t>formal model</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -19415,7 +19415,7 @@
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>formal model</t>
+          <t>specification</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -19440,7 +19440,7 @@
     <row r="761">
       <c r="A761" s="1" t="inlineStr">
         <is>
-          <t>specification</t>
+          <t>verification</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -19465,7 +19465,7 @@
     <row r="762">
       <c r="A762" s="1" t="inlineStr">
         <is>
-          <t>verification</t>
+          <t>ecc</t>
         </is>
       </c>
       <c r="B762" t="n">
@@ -19490,7 +19490,7 @@
     <row r="763">
       <c r="A763" s="1" t="inlineStr">
         <is>
-          <t>ecc</t>
+          <t>rsa</t>
         </is>
       </c>
       <c r="B763" t="n">
@@ -19515,11 +19515,11 @@
     <row r="764">
       <c r="A764" s="1" t="inlineStr">
         <is>
-          <t>rsa</t>
+          <t>ghost</t>
         </is>
       </c>
       <c r="B764" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C764" t="n">
         <v>0</v>
@@ -19531,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="F764" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G764" t="n">
         <v>0</v>
@@ -19540,7 +19540,7 @@
     <row r="765">
       <c r="A765" s="1" t="inlineStr">
         <is>
-          <t>ghost</t>
+          <t>provable security</t>
         </is>
       </c>
       <c r="B765" t="n">
@@ -19565,11 +19565,11 @@
     <row r="766">
       <c r="A766" s="1" t="inlineStr">
         <is>
-          <t>provable security</t>
+          <t>state machine replication</t>
         </is>
       </c>
       <c r="B766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C766" t="n">
         <v>0</v>
@@ -19581,20 +19581,20 @@
         <v>0</v>
       </c>
       <c r="F766" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>state machine replication</t>
+          <t>replicate system</t>
         </is>
       </c>
       <c r="B767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C767" t="n">
         <v>0</v>
@@ -19609,13 +19609,13 @@
         <v>1</v>
       </c>
       <c r="G767" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1" t="inlineStr">
         <is>
-          <t>replicate system</t>
+          <t>byzantine failure</t>
         </is>
       </c>
       <c r="B768" t="n">
@@ -19640,11 +19640,11 @@
     <row r="769">
       <c r="A769" s="1" t="inlineStr">
         <is>
-          <t>byzantine failure</t>
+          <t>digital investigation</t>
         </is>
       </c>
       <c r="B769" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C769" t="n">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="F769" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G769" t="n">
         <v>0</v>
@@ -19665,7 +19665,7 @@
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>digital investigation</t>
+          <t>forensic readiness</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -19690,7 +19690,7 @@
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>forensic readiness</t>
+          <t>incident response</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -19715,7 +19715,7 @@
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>incident response</t>
+          <t>digital witness</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -19740,7 +19740,7 @@
     <row r="773">
       <c r="A773" s="1" t="inlineStr">
         <is>
-          <t>digital witness</t>
+          <t>decentralise compute</t>
         </is>
       </c>
       <c r="B773" t="n">
@@ -19765,7 +19765,7 @@
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
         <is>
-          <t>decentralise compute</t>
+          <t>liability attribution</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -19790,11 +19790,11 @@
     <row r="775">
       <c r="A775" s="1" t="inlineStr">
         <is>
-          <t>liability attribution</t>
+          <t>e-health</t>
         </is>
       </c>
       <c r="B775" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C775" t="n">
         <v>0</v>
@@ -19806,20 +19806,20 @@
         <v>0</v>
       </c>
       <c r="F775" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G775" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="inlineStr">
         <is>
-          <t>e-health</t>
+          <t>digital evidence</t>
         </is>
       </c>
       <c r="B776" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C776" t="n">
         <v>0</v>
@@ -19831,16 +19831,16 @@
         <v>0</v>
       </c>
       <c r="F776" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G776" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1" t="inlineStr">
         <is>
-          <t>digital evidence</t>
+          <t>system chaincode</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -19865,7 +19865,7 @@
     <row r="778">
       <c r="A778" s="1" t="inlineStr">
         <is>
-          <t>system chaincode</t>
+          <t>usage control</t>
         </is>
       </c>
       <c r="B778" t="n">
@@ -19890,7 +19890,7 @@
     <row r="779">
       <c r="A779" s="1" t="inlineStr">
         <is>
-          <t>usage control</t>
+          <t>continuous monitor</t>
         </is>
       </c>
       <c r="B779" t="n">
@@ -19915,11 +19915,11 @@
     <row r="780">
       <c r="A780" s="1" t="inlineStr">
         <is>
-          <t>continuous monitor</t>
+          <t xml:space="preserve">markovian arrival process </t>
         </is>
       </c>
       <c r="B780" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C780" t="n">
         <v>0</v>
@@ -19931,7 +19931,7 @@
         <v>0</v>
       </c>
       <c r="F780" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G780" t="n">
         <v>0</v>
@@ -19940,7 +19940,7 @@
     <row r="781">
       <c r="A781" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">markovian arrival process </t>
+          <t>phase type  distribution</t>
         </is>
       </c>
       <c r="B781" t="n">
@@ -19965,7 +19965,7 @@
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
         <is>
-          <t>phase type  distribution</t>
+          <t>block-structured markov process</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -19990,7 +19990,7 @@
     <row r="783">
       <c r="A783" s="1" t="inlineStr">
         <is>
-          <t>block-structured markov process</t>
+          <t>rg factorization</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -20015,11 +20015,11 @@
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
         <is>
-          <t>rg factorization</t>
+          <t>hospital 4.0</t>
         </is>
       </c>
       <c r="B784" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C784" t="n">
         <v>0</v>
@@ -20031,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="F784" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G784" t="n">
         <v>0</v>
@@ -20040,7 +20040,7 @@
     <row r="785">
       <c r="A785" s="1" t="inlineStr">
         <is>
-          <t>hospital 4.0</t>
+          <t>cad</t>
         </is>
       </c>
       <c r="B785" t="n">
@@ -20065,7 +20065,7 @@
     <row r="786">
       <c r="A786" s="1" t="inlineStr">
         <is>
-          <t>cad</t>
+          <t>bim</t>
         </is>
       </c>
       <c r="B786" t="n">
@@ -20090,7 +20090,7 @@
     <row r="787">
       <c r="A787" s="1" t="inlineStr">
         <is>
-          <t>bim</t>
+          <t>pdm</t>
         </is>
       </c>
       <c r="B787" t="n">
@@ -20115,7 +20115,7 @@
     <row r="788">
       <c r="A788" s="1" t="inlineStr">
         <is>
-          <t>pdm</t>
+          <t>plm</t>
         </is>
       </c>
       <c r="B788" t="n">
@@ -20140,11 +20140,11 @@
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
         <is>
-          <t>plm</t>
+          <t>knowledge governance</t>
         </is>
       </c>
       <c r="B789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C789" t="n">
         <v>0</v>
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="F789" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G789" t="n">
         <v>0</v>
@@ -20165,7 +20165,7 @@
     <row r="790">
       <c r="A790" s="1" t="inlineStr">
         <is>
-          <t>knowledge governance</t>
+          <t>dynamic alliance</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -20190,11 +20190,11 @@
     <row r="791">
       <c r="A791" s="1" t="inlineStr">
         <is>
-          <t>dynamic alliance</t>
+          <t>selfish mine</t>
         </is>
       </c>
       <c r="B791" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C791" t="n">
         <v>0</v>
@@ -20209,17 +20209,17 @@
         <v>1</v>
       </c>
       <c r="G791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1" t="inlineStr">
         <is>
-          <t>selfish mine</t>
+          <t>agent-based model</t>
         </is>
       </c>
       <c r="B792" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C792" t="n">
         <v>0</v>
@@ -20234,13 +20234,13 @@
         <v>1</v>
       </c>
       <c r="G792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1" t="inlineStr">
         <is>
-          <t>agent-based model</t>
+          <t>empirical multiplayer game</t>
         </is>
       </c>
       <c r="B793" t="n">
@@ -20265,11 +20265,11 @@
     <row r="794">
       <c r="A794" s="1" t="inlineStr">
         <is>
-          <t>empirical multiplayer game</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C794" t="n">
         <v>0</v>
@@ -20281,7 +20281,7 @@
         <v>0</v>
       </c>
       <c r="F794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G794" t="n">
         <v>0</v>
@@ -20290,7 +20290,7 @@
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
         <is>
-          <t>decentralize</t>
+          <t>pharmaceutical supply chain</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -20315,11 +20315,11 @@
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
         <is>
-          <t>pharmaceutical supply chain</t>
+          <t>decentralize network</t>
         </is>
       </c>
       <c r="B796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C796" t="n">
         <v>0</v>
@@ -20334,17 +20334,17 @@
         <v>0</v>
       </c>
       <c r="G796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
         <is>
-          <t>decentralize network</t>
+          <t>lock chain research</t>
         </is>
       </c>
       <c r="B797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C797" t="n">
         <v>0</v>
@@ -20359,13 +20359,13 @@
         <v>0</v>
       </c>
       <c r="G797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
         <is>
-          <t>lock chain research</t>
+          <t>scientometric</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -20390,7 +20390,7 @@
     <row r="799">
       <c r="A799" s="1" t="inlineStr">
         <is>
-          <t>scientometric</t>
+          <t>research cooperation</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -20415,7 +20415,7 @@
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
         <is>
-          <t>research cooperation</t>
+          <t>web of science</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -20440,7 +20440,7 @@
     <row r="801">
       <c r="A801" s="1" t="inlineStr">
         <is>
-          <t>web of science</t>
+          <t>knowledge map</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -20465,7 +20465,7 @@
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
         <is>
-          <t>knowledge map</t>
+          <t>anomaly detection</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -20490,7 +20490,7 @@
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
         <is>
-          <t>anomaly detection</t>
+          <t>graph analysis</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -20515,11 +20515,11 @@
     <row r="804">
       <c r="A804" s="1" t="inlineStr">
         <is>
-          <t>graph analysis</t>
+          <t>vulnerability</t>
         </is>
       </c>
       <c r="B804" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C804" t="n">
         <v>0</v>
@@ -20531,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="F804" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G804" t="n">
         <v>0</v>
@@ -20540,11 +20540,11 @@
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
         <is>
-          <t>vulnerability</t>
+          <t>threat</t>
         </is>
       </c>
       <c r="B805" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C805" t="n">
         <v>0</v>
@@ -20556,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="F805" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G805" t="n">
         <v>0</v>
@@ -20565,11 +20565,11 @@
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
         <is>
-          <t>threat</t>
+          <t>technical characteristic</t>
         </is>
       </c>
       <c r="B806" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C806" t="n">
         <v>0</v>
@@ -20581,7 +20581,7 @@
         <v>0</v>
       </c>
       <c r="F806" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G806" t="n">
         <v>0</v>
@@ -20590,11 +20590,11 @@
     <row r="807">
       <c r="A807" s="1" t="inlineStr">
         <is>
-          <t>technical characteristic</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C807" t="n">
         <v>0</v>
@@ -20606,16 +20606,16 @@
         <v>0</v>
       </c>
       <c r="F807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G807" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>scientometrics</t>
         </is>
       </c>
       <c r="B808" t="n">
@@ -20640,11 +20640,11 @@
     <row r="809">
       <c r="A809" s="1" t="inlineStr">
         <is>
-          <t>scientometrics</t>
+          <t>co-authorships</t>
         </is>
       </c>
       <c r="B809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C809" t="n">
         <v>0</v>
@@ -20659,13 +20659,13 @@
         <v>1</v>
       </c>
       <c r="G809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1" t="inlineStr">
         <is>
-          <t>co-authorships</t>
+          <t>bibliographic couple</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -20690,7 +20690,7 @@
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
         <is>
-          <t>bibliographic couple</t>
+          <t>co-occurrence analysis</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -20715,11 +20715,11 @@
     <row r="812">
       <c r="A812" s="1" t="inlineStr">
         <is>
-          <t>co-occurrence analysis</t>
+          <t xml:space="preserve">electronic health record </t>
         </is>
       </c>
       <c r="B812" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C812" t="n">
         <v>0</v>
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="F812" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G812" t="n">
         <v>0</v>
@@ -20740,11 +20740,11 @@
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">electronic health record </t>
+          <t>privacy-preserving</t>
         </is>
       </c>
       <c r="B813" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C813" t="n">
         <v>0</v>
@@ -20756,7 +20756,7 @@
         <v>0</v>
       </c>
       <c r="F813" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G813" t="n">
         <v>0</v>
@@ -20765,7 +20765,7 @@
     <row r="814">
       <c r="A814" s="1" t="inlineStr">
         <is>
-          <t>privacy-preserving</t>
+          <t>decentralise application</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -20790,11 +20790,11 @@
     <row r="815">
       <c r="A815" s="1" t="inlineStr">
         <is>
-          <t>decentralise application</t>
+          <t>supply chain finance</t>
         </is>
       </c>
       <c r="B815" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C815" t="n">
         <v>0</v>
@@ -20806,7 +20806,7 @@
         <v>0</v>
       </c>
       <c r="F815" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G815" t="n">
         <v>0</v>
@@ -20815,11 +20815,11 @@
     <row r="816">
       <c r="A816" s="1" t="inlineStr">
         <is>
-          <t>supply chain finance</t>
+          <t>risk management</t>
         </is>
       </c>
       <c r="B816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C816" t="n">
         <v>0</v>
@@ -20834,17 +20834,17 @@
         <v>0</v>
       </c>
       <c r="G816" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1" t="inlineStr">
         <is>
-          <t>risk management</t>
+          <t>credit risk</t>
         </is>
       </c>
       <c r="B817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C817" t="n">
         <v>0</v>
@@ -20859,13 +20859,13 @@
         <v>0</v>
       </c>
       <c r="G817" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1" t="inlineStr">
         <is>
-          <t>credit risk</t>
+          <t>operational risk</t>
         </is>
       </c>
       <c r="B818" t="n">
@@ -20890,11 +20890,11 @@
     <row r="819">
       <c r="A819" s="1" t="inlineStr">
         <is>
-          <t>operational risk</t>
+          <t>network supervision</t>
         </is>
       </c>
       <c r="B819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C819" t="n">
         <v>0</v>
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="F819" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G819" t="n">
         <v>0</v>
@@ -20915,7 +20915,7 @@
     <row r="820">
       <c r="A820" s="1" t="inlineStr">
         <is>
-          <t>network supervision</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="B820" t="n">
@@ -20940,7 +20940,7 @@
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>data overhead</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -20965,11 +20965,11 @@
     <row r="822">
       <c r="A822" s="1" t="inlineStr">
         <is>
-          <t>data overhead</t>
+          <t>crowdsourcing service</t>
         </is>
       </c>
       <c r="B822" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C822" t="n">
         <v>0</v>
@@ -20981,7 +20981,7 @@
         <v>0</v>
       </c>
       <c r="F822" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G822" t="n">
         <v>0</v>
@@ -20990,11 +20990,11 @@
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
         <is>
-          <t>crowdsourcing service</t>
+          <t>incentive mechanism</t>
         </is>
       </c>
       <c r="B823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C823" t="n">
         <v>0</v>
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="F823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G823" t="n">
         <v>0</v>
@@ -21015,7 +21015,7 @@
     <row r="824">
       <c r="A824" s="1" t="inlineStr">
         <is>
-          <t>incentive mechanism</t>
+          <t>eid</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -21040,7 +21040,7 @@
     <row r="825">
       <c r="A825" s="1" t="inlineStr">
         <is>
-          <t>eid</t>
+          <t>government-issued electronic identity</t>
         </is>
       </c>
       <c r="B825" t="n">
@@ -21065,11 +21065,11 @@
     <row r="826">
       <c r="A826" s="1" t="inlineStr">
         <is>
-          <t>government-issued electronic identity</t>
+          <t>dpos</t>
         </is>
       </c>
       <c r="B826" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C826" t="n">
         <v>0</v>
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="F826" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G826" t="n">
         <v>0</v>
@@ -21090,7 +21090,7 @@
     <row r="827">
       <c r="A827" s="1" t="inlineStr">
         <is>
-          <t>dpos</t>
+          <t>pbft</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -21115,11 +21115,11 @@
     <row r="828">
       <c r="A828" s="1" t="inlineStr">
         <is>
-          <t>pbft</t>
+          <t>benchmark</t>
         </is>
       </c>
       <c r="B828" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C828" t="n">
         <v>0</v>
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="F828" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G828" t="n">
         <v>0</v>
@@ -21140,7 +21140,7 @@
     <row r="829">
       <c r="A829" s="1" t="inlineStr">
         <is>
-          <t>benchmark</t>
+          <t>performance analysis</t>
         </is>
       </c>
       <c r="B829" t="n">
@@ -21165,7 +21165,7 @@
     <row r="830">
       <c r="A830" s="1" t="inlineStr">
         <is>
-          <t>performance analysis</t>
+          <t>performance optimization</t>
         </is>
       </c>
       <c r="B830" t="n">
@@ -21190,11 +21190,11 @@
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
         <is>
-          <t>performance optimization</t>
+          <t>citespace</t>
         </is>
       </c>
       <c r="B831" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C831" t="n">
         <v>0</v>
@@ -21206,20 +21206,20 @@
         <v>0</v>
       </c>
       <c r="F831" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G831" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
         <is>
-          <t>citespace</t>
+          <t>absorptive capacity</t>
         </is>
       </c>
       <c r="B832" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C832" t="n">
         <v>0</v>
@@ -21231,16 +21231,16 @@
         <v>0</v>
       </c>
       <c r="F832" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
         <is>
-          <t>absorptive capacity</t>
+          <t>firm performance</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -21265,7 +21265,7 @@
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
         <is>
-          <t>firm performance</t>
+          <t>start-ups</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -21290,7 +21290,7 @@
     <row r="835">
       <c r="A835" s="1" t="inlineStr">
         <is>
-          <t>start-ups</t>
+          <t>digital transformation</t>
         </is>
       </c>
       <c r="B835" t="n">
@@ -21315,11 +21315,11 @@
     <row r="836">
       <c r="A836" s="1" t="inlineStr">
         <is>
-          <t>digital transformation</t>
+          <t>conceptualization</t>
         </is>
       </c>
       <c r="B836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C836" t="n">
         <v>0</v>
@@ -21331,7 +21331,7 @@
         <v>0</v>
       </c>
       <c r="F836" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G836" t="n">
         <v>0</v>
@@ -21340,7 +21340,7 @@
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
         <is>
-          <t>conceptualization</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -21365,7 +21365,7 @@
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>technology adoption</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -21390,7 +21390,7 @@
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
         <is>
-          <t>technology adoption</t>
+          <t>o39</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -21415,11 +21415,11 @@
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
         <is>
-          <t>o39</t>
+          <t>biot</t>
         </is>
       </c>
       <c r="B840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C840" t="n">
         <v>0</v>
@@ -21431,7 +21431,7 @@
         <v>0</v>
       </c>
       <c r="F840" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G840" t="n">
         <v>0</v>
@@ -21440,11 +21440,11 @@
     <row r="841">
       <c r="A841" s="1" t="inlineStr">
         <is>
-          <t>biot</t>
+          <t>project ecosystem</t>
         </is>
       </c>
       <c r="B841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C841" t="n">
         <v>0</v>
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="F841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G841" t="n">
         <v>0</v>
@@ -21465,7 +21465,7 @@
     <row r="842">
       <c r="A842" s="1" t="inlineStr">
         <is>
-          <t>project ecosystem</t>
+          <t>technical</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -21490,7 +21490,7 @@
     <row r="843">
       <c r="A843" s="1" t="inlineStr">
         <is>
-          <t>technical</t>
+          <t>legal issue</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -21515,11 +21515,11 @@
     <row r="844">
       <c r="A844" s="1" t="inlineStr">
         <is>
-          <t>legal issue</t>
+          <t>social shop</t>
         </is>
       </c>
       <c r="B844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C844" t="n">
         <v>0</v>
@@ -21531,7 +21531,7 @@
         <v>0</v>
       </c>
       <c r="F844" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G844" t="n">
         <v>0</v>
@@ -21540,7 +21540,7 @@
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
         <is>
-          <t>social shop</t>
+          <t>loyalty program</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -21565,7 +21565,7 @@
     <row r="846">
       <c r="A846" s="1" t="inlineStr">
         <is>
-          <t>loyalty program</t>
+          <t>transformation</t>
         </is>
       </c>
       <c r="B846" t="n">
@@ -21590,11 +21590,11 @@
     <row r="847">
       <c r="A847" s="1" t="inlineStr">
         <is>
-          <t>transformation</t>
+          <t>bibliometric</t>
         </is>
       </c>
       <c r="B847" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C847" t="n">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="F847" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G847" t="n">
         <v>0</v>
@@ -21615,11 +21615,11 @@
     <row r="848">
       <c r="A848" s="1" t="inlineStr">
         <is>
-          <t>bibliometric</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="B848" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C848" t="n">
         <v>0</v>
@@ -21631,7 +21631,7 @@
         <v>0</v>
       </c>
       <c r="F848" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G848" t="n">
         <v>0</v>
@@ -21640,11 +21640,11 @@
     <row r="849">
       <c r="A849" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B849" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C849" t="n">
         <v>0</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="F849" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G849" t="n">
         <v>0</v>
@@ -21665,7 +21665,7 @@
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>poet</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -21690,7 +21690,7 @@
     <row r="851">
       <c r="A851" s="1" t="inlineStr">
         <is>
-          <t>poet</t>
+          <t>raft</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -21715,7 +21715,7 @@
     <row r="852">
       <c r="A852" s="1" t="inlineStr">
         <is>
-          <t>raft</t>
+          <t>his</t>
         </is>
       </c>
       <c r="B852" t="n">
@@ -21740,11 +21740,11 @@
     <row r="853">
       <c r="A853" s="1" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>shari’ah</t>
         </is>
       </c>
       <c r="B853" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C853" t="n">
         <v>0</v>
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="F853" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G853" t="n">
         <v>0</v>
@@ -21765,7 +21765,7 @@
     <row r="854">
       <c r="A854" s="1" t="inlineStr">
         <is>
-          <t>shari’ah</t>
+          <t>mechanism</t>
         </is>
       </c>
       <c r="B854" t="n">
@@ -21790,11 +21790,11 @@
     <row r="855">
       <c r="A855" s="1" t="inlineStr">
         <is>
-          <t>mechanism</t>
+          <t>distribute consensus</t>
         </is>
       </c>
       <c r="B855" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C855" t="n">
         <v>0</v>
@@ -21806,20 +21806,20 @@
         <v>0</v>
       </c>
       <c r="F855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1" t="inlineStr">
         <is>
-          <t>distribute consensus</t>
+          <t>proof of stack</t>
         </is>
       </c>
       <c r="B856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C856" t="n">
         <v>0</v>
@@ -21831,16 +21831,16 @@
         <v>0</v>
       </c>
       <c r="F856" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1" t="inlineStr">
         <is>
-          <t>proof of stack</t>
+          <t>open network protocol</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -21865,7 +21865,7 @@
     <row r="858">
       <c r="A858" s="1" t="inlineStr">
         <is>
-          <t>open network protocol</t>
+          <t>hybrid consensus</t>
         </is>
       </c>
       <c r="B858" t="n">
@@ -21890,7 +21890,7 @@
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
         <is>
-          <t>hybrid consensus</t>
+          <t>puzzle design</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -21915,11 +21915,11 @@
     <row r="860">
       <c r="A860" s="1" t="inlineStr">
         <is>
-          <t>puzzle design</t>
+          <t>formal specification</t>
         </is>
       </c>
       <c r="B860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C860" t="n">
         <v>0</v>
@@ -21931,7 +21931,7 @@
         <v>0</v>
       </c>
       <c r="F860" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G860" t="n">
         <v>0</v>
@@ -21940,11 +21940,11 @@
     <row r="861">
       <c r="A861" s="1" t="inlineStr">
         <is>
-          <t>formal specification</t>
+          <t>biometrics</t>
         </is>
       </c>
       <c r="B861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C861" t="n">
         <v>0</v>
@@ -21956,7 +21956,7 @@
         <v>0</v>
       </c>
       <c r="F861" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G861" t="n">
         <v>0</v>
@@ -21965,11 +21965,11 @@
     <row r="862">
       <c r="A862" s="1" t="inlineStr">
         <is>
-          <t>biometrics</t>
+          <t>private chain</t>
         </is>
       </c>
       <c r="B862" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C862" t="n">
         <v>0</v>
@@ -21981,7 +21981,7 @@
         <v>0</v>
       </c>
       <c r="F862" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G862" t="n">
         <v>0</v>
@@ -21990,7 +21990,7 @@
     <row r="863">
       <c r="A863" s="1" t="inlineStr">
         <is>
-          <t>private chain</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B863" t="n">
@@ -22015,7 +22015,7 @@
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>practical insight</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -22040,11 +22040,11 @@
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
         <is>
-          <t>practical insight</t>
+          <t>book management</t>
         </is>
       </c>
       <c r="B865" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C865" t="n">
         <v>0</v>
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="F865" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G865" t="n">
         <v>0</v>
@@ -22065,7 +22065,7 @@
     <row r="866">
       <c r="A866" s="1" t="inlineStr">
         <is>
-          <t>book management</t>
+          <t>web application</t>
         </is>
       </c>
       <c r="B866" t="n">
@@ -22090,7 +22090,7 @@
     <row r="867">
       <c r="A867" s="1" t="inlineStr">
         <is>
-          <t>web application</t>
+          <t>enterprise service</t>
         </is>
       </c>
       <c r="B867" t="n">
@@ -22115,7 +22115,7 @@
     <row r="868">
       <c r="A868" s="1" t="inlineStr">
         <is>
-          <t>enterprise service</t>
+          <t>layer architecture</t>
         </is>
       </c>
       <c r="B868" t="n">
@@ -22140,7 +22140,7 @@
     <row r="869">
       <c r="A869" s="1" t="inlineStr">
         <is>
-          <t>layer architecture</t>
+          <t xml:space="preserve">service-oriented architecture </t>
         </is>
       </c>
       <c r="B869" t="n">
@@ -22165,7 +22165,7 @@
     <row r="870">
       <c r="A870" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">service-oriented architecture </t>
+          <t>distribute file storage</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -22190,11 +22190,11 @@
     <row r="871">
       <c r="A871" s="1" t="inlineStr">
         <is>
-          <t>distribute file storage</t>
+          <t>electronic payment</t>
         </is>
       </c>
       <c r="B871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C871" t="n">
         <v>0</v>
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
       <c r="F871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G871" t="n">
         <v>0</v>
@@ -22215,7 +22215,7 @@
     <row r="872">
       <c r="A872" s="1" t="inlineStr">
         <is>
-          <t>electronic payment</t>
+          <t>decentralize payment system</t>
         </is>
       </c>
       <c r="B872" t="n">
@@ -22240,7 +22240,7 @@
     <row r="873">
       <c r="A873" s="1" t="inlineStr">
         <is>
-          <t>decentralize payment system</t>
+          <t>energy efficiency</t>
         </is>
       </c>
       <c r="B873" t="n">
@@ -22265,7 +22265,7 @@
     <row r="874">
       <c r="A874" s="1" t="inlineStr">
         <is>
-          <t>energy efficiency</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B874" t="n">
@@ -22290,7 +22290,7 @@
     <row r="875">
       <c r="A875" s="1" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>ransomware</t>
         </is>
       </c>
       <c r="B875" t="n">
@@ -22315,7 +22315,7 @@
     <row r="876">
       <c r="A876" s="1" t="inlineStr">
         <is>
-          <t>ransomware</t>
+          <t>profitability</t>
         </is>
       </c>
       <c r="B876" t="n">
@@ -22340,11 +22340,11 @@
     <row r="877">
       <c r="A877" s="1" t="inlineStr">
         <is>
-          <t>profitability</t>
+          <t>vehicular adhoc network</t>
         </is>
       </c>
       <c r="B877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C877" t="n">
         <v>0</v>
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
       <c r="F877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G877" t="n">
         <v>0</v>
@@ -22365,11 +22365,11 @@
     <row r="878">
       <c r="A878" s="1" t="inlineStr">
         <is>
-          <t>vehicular adhoc network</t>
+          <t>vanet</t>
         </is>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C878" t="n">
         <v>0</v>
@@ -22384,17 +22384,17 @@
         <v>0</v>
       </c>
       <c r="G878" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1" t="inlineStr">
         <is>
-          <t>vanet</t>
+          <t>iomt</t>
         </is>
       </c>
       <c r="B879" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C879" t="n">
         <v>0</v>
@@ -22409,13 +22409,13 @@
         <v>0</v>
       </c>
       <c r="G879" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="inlineStr">
         <is>
-          <t>iomt</t>
+          <t>secure network</t>
         </is>
       </c>
       <c r="B880" t="n">
@@ -22440,11 +22440,11 @@
     <row r="881">
       <c r="A881" s="1" t="inlineStr">
         <is>
-          <t>secure network</t>
+          <t xml:space="preserve">wireless sensor network </t>
         </is>
       </c>
       <c r="B881" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C881" t="n">
         <v>0</v>
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
       <c r="F881" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G881" t="n">
         <v>0</v>
@@ -22465,11 +22465,11 @@
     <row r="882">
       <c r="A882" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">wireless sensor network </t>
+          <t>validation</t>
         </is>
       </c>
       <c r="B882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C882" t="n">
         <v>0</v>
@@ -22481,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="F882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G882" t="n">
         <v>0</v>
@@ -22490,7 +22490,7 @@
     <row r="883">
       <c r="A883" s="1" t="inlineStr">
         <is>
-          <t>validation</t>
+          <t>computer program</t>
         </is>
       </c>
       <c r="B883" t="n">
@@ -22515,7 +22515,7 @@
     <row r="884">
       <c r="A884" s="1" t="inlineStr">
         <is>
-          <t>computer program</t>
+          <t>freedom of information law by country</t>
         </is>
       </c>
       <c r="B884" t="n">
@@ -22540,7 +22540,7 @@
     <row r="885">
       <c r="A885" s="1" t="inlineStr">
         <is>
-          <t>freedom of information law by country</t>
+          <t>quantum machine learn</t>
         </is>
       </c>
       <c r="B885" t="n">
@@ -22565,7 +22565,7 @@
     <row r="886">
       <c r="A886" s="1" t="inlineStr">
         <is>
-          <t>quantum machine learn</t>
+          <t>qml</t>
         </is>
       </c>
       <c r="B886" t="n">
@@ -22590,7 +22590,7 @@
     <row r="887">
       <c r="A887" s="1" t="inlineStr">
         <is>
-          <t>qml</t>
+          <t>information process</t>
         </is>
       </c>
       <c r="B887" t="n">
@@ -22615,7 +22615,7 @@
     <row r="888">
       <c r="A888" s="1" t="inlineStr">
         <is>
-          <t>information process</t>
+          <t>subroutine</t>
         </is>
       </c>
       <c r="B888" t="n">
@@ -22640,7 +22640,7 @@
     <row r="889">
       <c r="A889" s="1" t="inlineStr">
         <is>
-          <t>subroutine</t>
+          <t>cellular automaton</t>
         </is>
       </c>
       <c r="B889" t="n">
@@ -22665,7 +22665,7 @@
     <row r="890">
       <c r="A890" s="1" t="inlineStr">
         <is>
-          <t>cellular automaton</t>
+          <t>quantum information science</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -22690,11 +22690,11 @@
     <row r="891">
       <c r="A891" s="1" t="inlineStr">
         <is>
-          <t>quantum information science</t>
+          <t>self-destruct</t>
         </is>
       </c>
       <c r="B891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C891" t="n">
         <v>0</v>
@@ -22709,13 +22709,13 @@
         <v>0</v>
       </c>
       <c r="G891" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1" t="inlineStr">
         <is>
-          <t>self-destruct</t>
+          <t xml:space="preserve">vector </t>
         </is>
       </c>
       <c r="B892" t="n">
@@ -22740,11 +22740,11 @@
     <row r="893">
       <c r="A893" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">vector </t>
+          <t>text corpus</t>
         </is>
       </c>
       <c r="B893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C893" t="n">
         <v>0</v>
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="G893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1" t="inlineStr">
         <is>
-          <t>text corpus</t>
+          <t xml:space="preserve">duplex </t>
         </is>
       </c>
       <c r="B894" t="n">
@@ -22790,7 +22790,7 @@
     <row r="895">
       <c r="A895" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">duplex </t>
+          <t>holography</t>
         </is>
       </c>
       <c r="B895" t="n">
@@ -22815,7 +22815,7 @@
     <row r="896">
       <c r="A896" s="1" t="inlineStr">
         <is>
-          <t>holography</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="B896" t="n">
@@ -22840,11 +22840,11 @@
     <row r="897">
       <c r="A897" s="1" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>non-repudiation</t>
         </is>
       </c>
       <c r="B897" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C897" t="n">
         <v>0</v>
@@ -22859,13 +22859,13 @@
         <v>0</v>
       </c>
       <c r="G897" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1" t="inlineStr">
         <is>
-          <t>non-repudiation</t>
+          <t>confidentiality</t>
         </is>
       </c>
       <c r="B898" t="n">
@@ -22890,7 +22890,7 @@
     <row r="899">
       <c r="A899" s="1" t="inlineStr">
         <is>
-          <t>confidentiality</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="B899" t="n">
@@ -22915,7 +22915,7 @@
     <row r="900">
       <c r="A900" s="1" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>usability</t>
         </is>
       </c>
       <c r="B900" t="n">
@@ -22940,11 +22940,11 @@
     <row r="901">
       <c r="A901" s="1" t="inlineStr">
         <is>
-          <t>usability</t>
+          <t>ch</t>
         </is>
       </c>
       <c r="B901" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C901" t="n">
         <v>0</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="G901" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="1" t="inlineStr">
         <is>
-          <t>ch</t>
+          <t>ra–toueg consensus algorithm</t>
         </is>
       </c>
       <c r="B902" t="n">
@@ -22990,7 +22990,7 @@
     <row r="903">
       <c r="A903" s="1" t="inlineStr">
         <is>
-          <t>ra–toueg consensus algorithm</t>
+          <t>decision tree</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -23015,7 +23015,7 @@
     <row r="904">
       <c r="A904" s="1" t="inlineStr">
         <is>
-          <t>decision tree</t>
+          <t>application domain</t>
         </is>
       </c>
       <c r="B904" t="n">
@@ -23040,7 +23040,7 @@
     <row r="905">
       <c r="A905" s="1" t="inlineStr">
         <is>
-          <t>application domain</t>
+          <t xml:space="preserve">table </t>
         </is>
       </c>
       <c r="B905" t="n">
@@ -23065,11 +23065,11 @@
     <row r="906">
       <c r="A906" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">table </t>
+          <t>focus group</t>
         </is>
       </c>
       <c r="B906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C906" t="n">
         <v>0</v>
@@ -23084,13 +23084,13 @@
         <v>0</v>
       </c>
       <c r="G906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="1" t="inlineStr">
         <is>
-          <t>focus group</t>
+          <t>librarian</t>
         </is>
       </c>
       <c r="B907" t="n">
@@ -23115,7 +23115,7 @@
     <row r="908">
       <c r="A908" s="1" t="inlineStr">
         <is>
-          <t>librarian</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B908" t="n">
@@ -23140,7 +23140,7 @@
     <row r="909">
       <c r="A909" s="1" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>consortium</t>
         </is>
       </c>
       <c r="B909" t="n">
@@ -23165,7 +23165,7 @@
     <row r="910">
       <c r="A910" s="1" t="inlineStr">
         <is>
-          <t>consortium</t>
+          <t>single point of failure</t>
         </is>
       </c>
       <c r="B910" t="n">
@@ -23190,7 +23190,7 @@
     <row r="911">
       <c r="A911" s="1" t="inlineStr">
         <is>
-          <t>single point of failure</t>
+          <t>transaction time</t>
         </is>
       </c>
       <c r="B911" t="n">
@@ -23215,7 +23215,7 @@
     <row r="912">
       <c r="A912" s="1" t="inlineStr">
         <is>
-          <t>transaction time</t>
+          <t>information sensitivity</t>
         </is>
       </c>
       <c r="B912" t="n">
@@ -23240,7 +23240,7 @@
     <row r="913">
       <c r="A913" s="1" t="inlineStr">
         <is>
-          <t>information sensitivity</t>
+          <t>reliability engineer</t>
         </is>
       </c>
       <c r="B913" t="n">
@@ -23265,7 +23265,7 @@
     <row r="914">
       <c r="A914" s="1" t="inlineStr">
         <is>
-          <t>reliability engineer</t>
+          <t>centralisation</t>
         </is>
       </c>
       <c r="B914" t="n">
@@ -23290,7 +23290,7 @@
     <row r="915">
       <c r="A915" s="1" t="inlineStr">
         <is>
-          <t>centralisation</t>
+          <t>semiconductor industry</t>
         </is>
       </c>
       <c r="B915" t="n">
@@ -23315,7 +23315,7 @@
     <row r="916">
       <c r="A916" s="1" t="inlineStr">
         <is>
-          <t>semiconductor industry</t>
+          <t>cyber spy</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -23340,11 +23340,11 @@
     <row r="917">
       <c r="A917" s="1" t="inlineStr">
         <is>
-          <t>cyber spy</t>
+          <t>fog compute</t>
         </is>
       </c>
       <c r="B917" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C917" t="n">
         <v>0</v>
@@ -23359,13 +23359,13 @@
         <v>0</v>
       </c>
       <c r="G917" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="1" t="inlineStr">
         <is>
-          <t>fog compute</t>
+          <t>smart device</t>
         </is>
       </c>
       <c r="B918" t="n">
@@ -23390,11 +23390,11 @@
     <row r="919">
       <c r="A919" s="1" t="inlineStr">
         <is>
-          <t>smart device</t>
+          <t>serial digital video out</t>
         </is>
       </c>
       <c r="B919" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C919" t="n">
         <v>0</v>
@@ -23409,13 +23409,13 @@
         <v>0</v>
       </c>
       <c r="G919" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="1" t="inlineStr">
         <is>
-          <t>serial digital video out</t>
+          <t>mobile robot</t>
         </is>
       </c>
       <c r="B920" t="n">
@@ -23440,11 +23440,11 @@
     <row r="921">
       <c r="A921" s="1" t="inlineStr">
         <is>
-          <t>mobile robot</t>
+          <t xml:space="preserve">key </t>
         </is>
       </c>
       <c r="B921" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C921" t="n">
         <v>0</v>
@@ -23459,13 +23459,13 @@
         <v>0</v>
       </c>
       <c r="G921" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">key </t>
+          <t>trustworthy compute</t>
         </is>
       </c>
       <c r="B922" t="n">
@@ -23490,11 +23490,11 @@
     <row r="923">
       <c r="A923" s="1" t="inlineStr">
         <is>
-          <t>trustworthy compute</t>
+          <t>user experience</t>
         </is>
       </c>
       <c r="B923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C923" t="n">
         <v>0</v>
@@ -23509,17 +23509,17 @@
         <v>0</v>
       </c>
       <c r="G923" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="1" t="inlineStr">
         <is>
-          <t>user experience</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="B924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C924" t="n">
         <v>0</v>
@@ -23534,13 +23534,13 @@
         <v>0</v>
       </c>
       <c r="G924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="1" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>http public key pin</t>
         </is>
       </c>
       <c r="B925" t="n">
@@ -23565,7 +23565,7 @@
     <row r="926">
       <c r="A926" s="1" t="inlineStr">
         <is>
-          <t>http public key pin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B926" t="n">
@@ -23590,11 +23590,11 @@
     <row r="927">
       <c r="A927" s="1" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>concept map</t>
         </is>
       </c>
       <c r="B927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C927" t="n">
         <v>0</v>
@@ -23609,13 +23609,13 @@
         <v>0</v>
       </c>
       <c r="G927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="1" t="inlineStr">
         <is>
-          <t>concept map</t>
+          <t>digital electronics</t>
         </is>
       </c>
       <c r="B928" t="n">
@@ -23640,11 +23640,11 @@
     <row r="929">
       <c r="A929" s="1" t="inlineStr">
         <is>
-          <t>digital electronics</t>
+          <t>cap theorem</t>
         </is>
       </c>
       <c r="B929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C929" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="G929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="1" t="inlineStr">
         <is>
-          <t>cap theorem</t>
+          <t>acid</t>
         </is>
       </c>
       <c r="B930" t="n">
@@ -23690,7 +23690,7 @@
     <row r="931">
       <c r="A931" s="1" t="inlineStr">
         <is>
-          <t>acid</t>
+          <t xml:space="preserve">atomicity </t>
         </is>
       </c>
       <c r="B931" t="n">
@@ -23715,7 +23715,7 @@
     <row r="932">
       <c r="A932" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">atomicity </t>
+          <t>internet censorship circumvention</t>
         </is>
       </c>
       <c r="B932" t="n">
@@ -23740,7 +23740,7 @@
     <row r="933">
       <c r="A933" s="1" t="inlineStr">
         <is>
-          <t>internet censorship circumvention</t>
+          <t xml:space="preserve">durability </t>
         </is>
       </c>
       <c r="B933" t="n">
@@ -23765,7 +23765,7 @@
     <row r="934">
       <c r="A934" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">durability </t>
+          <t>linear program relaxation</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -23790,7 +23790,7 @@
     <row r="935">
       <c r="A935" s="1" t="inlineStr">
         <is>
-          <t>linear program relaxation</t>
+          <t>real-time clock</t>
         </is>
       </c>
       <c r="B935" t="n">
@@ -23815,7 +23815,7 @@
     <row r="936">
       <c r="A936" s="1" t="inlineStr">
         <is>
-          <t>real-time clock</t>
+          <t>network partition</t>
         </is>
       </c>
       <c r="B936" t="n">
@@ -23840,7 +23840,7 @@
     <row r="937">
       <c r="A937" s="1" t="inlineStr">
         <is>
-          <t>network partition</t>
+          <t>algorithmic trade</t>
         </is>
       </c>
       <c r="B937" t="n">
@@ -23865,11 +23865,11 @@
     <row r="938">
       <c r="A938" s="1" t="inlineStr">
         <is>
-          <t>algorithmic trade</t>
+          <t>darknet</t>
         </is>
       </c>
       <c r="B938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C938" t="n">
         <v>0</v>
@@ -23884,13 +23884,13 @@
         <v>0</v>
       </c>
       <c r="G938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="1" t="inlineStr">
         <is>
-          <t>darknet</t>
+          <t>cyberspace</t>
         </is>
       </c>
       <c r="B939" t="n">
@@ -23915,7 +23915,7 @@
     <row r="940">
       <c r="A940" s="1" t="inlineStr">
         <is>
-          <t>cyberspace</t>
+          <t>de-anonymization</t>
         </is>
       </c>
       <c r="B940" t="n">
@@ -23940,7 +23940,7 @@
     <row r="941">
       <c r="A941" s="1" t="inlineStr">
         <is>
-          <t>de-anonymization</t>
+          <t>web search engine</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -23965,7 +23965,7 @@
     <row r="942">
       <c r="A942" s="1" t="inlineStr">
         <is>
-          <t>web search engine</t>
+          <t>relevance</t>
         </is>
       </c>
       <c r="B942" t="n">
@@ -23990,7 +23990,7 @@
     <row r="943">
       <c r="A943" s="1" t="inlineStr">
         <is>
-          <t>relevance</t>
+          <t>coat of arm</t>
         </is>
       </c>
       <c r="B943" t="n">
@@ -24015,7 +24015,7 @@
     <row r="944">
       <c r="A944" s="1" t="inlineStr">
         <is>
-          <t>coat of arm</t>
+          <t>tor messenger</t>
         </is>
       </c>
       <c r="B944" t="n">
@@ -24040,7 +24040,7 @@
     <row r="945">
       <c r="A945" s="1" t="inlineStr">
         <is>
-          <t>tor messenger</t>
+          <t>stateful firewall</t>
         </is>
       </c>
       <c r="B945" t="n">
@@ -24065,7 +24065,7 @@
     <row r="946">
       <c r="A946" s="1" t="inlineStr">
         <is>
-          <t>stateful firewall</t>
+          <t>connection-oriented communication</t>
         </is>
       </c>
       <c r="B946" t="n">
@@ -24090,7 +24090,7 @@
     <row r="947">
       <c r="A947" s="1" t="inlineStr">
         <is>
-          <t>connection-oriented communication</t>
+          <t>interoperation</t>
         </is>
       </c>
       <c r="B947" t="n">
@@ -24115,7 +24115,7 @@
     <row r="948">
       <c r="A948" s="1" t="inlineStr">
         <is>
-          <t>interoperation</t>
+          <t>end-to-end principle</t>
         </is>
       </c>
       <c r="B948" t="n">
@@ -24140,7 +24140,7 @@
     <row r="949">
       <c r="A949" s="1" t="inlineStr">
         <is>
-          <t>end-to-end principle</t>
+          <t>information-based complexity</t>
         </is>
       </c>
       <c r="B949" t="n">
@@ -24165,11 +24165,11 @@
     <row r="950">
       <c r="A950" s="1" t="inlineStr">
         <is>
-          <t>information-based complexity</t>
+          <t>technological convergence</t>
         </is>
       </c>
       <c r="B950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C950" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="G950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="1" t="inlineStr">
         <is>
-          <t>technological convergence</t>
+          <t xml:space="preserve">scope </t>
         </is>
       </c>
       <c r="B951" t="n">
@@ -24215,7 +24215,7 @@
     <row r="952">
       <c r="A952" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">scope </t>
+          <t>lively kernel</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -24240,11 +24240,11 @@
     <row r="953">
       <c r="A953" s="1" t="inlineStr">
         <is>
-          <t>lively kernel</t>
+          <t>consensus method</t>
         </is>
       </c>
       <c r="B953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C953" t="n">
         <v>0</v>
@@ -24259,17 +24259,17 @@
         <v>0</v>
       </c>
       <c r="G953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="1" t="inlineStr">
         <is>
-          <t>consensus method</t>
+          <t>performance evaluation criterion</t>
         </is>
       </c>
       <c r="B954" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C954" t="n">
         <v>0</v>
@@ -24284,13 +24284,13 @@
         <v>0</v>
       </c>
       <c r="G954" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1" t="inlineStr">
         <is>
-          <t>performance evaluation criterion</t>
+          <t>security vulnerability</t>
         </is>
       </c>
       <c r="B955" t="n">
@@ -24315,7 +24315,7 @@
     <row r="956">
       <c r="A956" s="1" t="inlineStr">
         <is>
-          <t>security vulnerability</t>
+          <t>permission model</t>
         </is>
       </c>
       <c r="B956" t="n">
@@ -24340,7 +24340,7 @@
     <row r="957">
       <c r="A957" s="1" t="inlineStr">
         <is>
-          <t>permission model</t>
+          <t>price bubble</t>
         </is>
       </c>
       <c r="B957" t="n">
@@ -24365,11 +24365,11 @@
     <row r="958">
       <c r="A958" s="1" t="inlineStr">
         <is>
-          <t>price bubble</t>
+          <t>sidechains</t>
         </is>
       </c>
       <c r="B958" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C958" t="n">
         <v>0</v>
@@ -24384,13 +24384,13 @@
         <v>0</v>
       </c>
       <c r="G958" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="1" t="inlineStr">
         <is>
-          <t>sidechains</t>
+          <t>decentralize application</t>
         </is>
       </c>
       <c r="B959" t="n">
@@ -24415,7 +24415,7 @@
     <row r="960">
       <c r="A960" s="1" t="inlineStr">
         <is>
-          <t>decentralize application</t>
+          <t>decentralize ledger</t>
         </is>
       </c>
       <c r="B960" t="n">
@@ -24440,7 +24440,7 @@
     <row r="961">
       <c r="A961" s="1" t="inlineStr">
         <is>
-          <t>decentralize ledger</t>
+          <t>digital asset</t>
         </is>
       </c>
       <c r="B961" t="n">
@@ -24465,11 +24465,11 @@
     <row r="962">
       <c r="A962" s="1" t="inlineStr">
         <is>
-          <t>digital asset</t>
+          <t>distribute application</t>
         </is>
       </c>
       <c r="B962" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C962" t="n">
         <v>0</v>
@@ -24484,17 +24484,17 @@
         <v>0</v>
       </c>
       <c r="G962" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="1" t="inlineStr">
         <is>
-          <t>distribute application</t>
+          <t>merkle tree</t>
         </is>
       </c>
       <c r="B963" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C963" t="n">
         <v>0</v>
@@ -24509,17 +24509,17 @@
         <v>0</v>
       </c>
       <c r="G963" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="1" t="inlineStr">
         <is>
-          <t>merkle tree</t>
+          <t>correctness</t>
         </is>
       </c>
       <c r="B964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C964" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="1" t="inlineStr">
         <is>
-          <t>correctness</t>
+          <t>security assurance</t>
         </is>
       </c>
       <c r="B965" t="n">
@@ -24565,7 +24565,7 @@
     <row r="966">
       <c r="A966" s="1" t="inlineStr">
         <is>
-          <t>security assurance</t>
+          <t>token</t>
         </is>
       </c>
       <c r="B966" t="n">
@@ -24590,7 +24590,7 @@
     <row r="967">
       <c r="A967" s="1" t="inlineStr">
         <is>
-          <t>token</t>
+          <t>miner</t>
         </is>
       </c>
       <c r="B967" t="n">
@@ -24615,11 +24615,11 @@
     <row r="968">
       <c r="A968" s="1" t="inlineStr">
         <is>
-          <t>miner</t>
+          <t>development process model</t>
         </is>
       </c>
       <c r="B968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C968" t="n">
         <v>0</v>
@@ -24634,13 +24634,13 @@
         <v>0</v>
       </c>
       <c r="G968" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="1" t="inlineStr">
         <is>
-          <t>development process model</t>
+          <t>design science</t>
         </is>
       </c>
       <c r="B969" t="n">
@@ -24665,7 +24665,7 @@
     <row r="970">
       <c r="A970" s="1" t="inlineStr">
         <is>
-          <t>design science</t>
+          <t xml:space="preserve">trustless append-only decentralize digital ledger </t>
         </is>
       </c>
       <c r="B970" t="n">
@@ -24690,11 +24690,11 @@
     <row r="971">
       <c r="A971" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">trustless append-only decentralize digital ledger </t>
+          <t>security protocol</t>
         </is>
       </c>
       <c r="B971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C971" t="n">
         <v>0</v>
@@ -24709,13 +24709,13 @@
         <v>0</v>
       </c>
       <c r="G971" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="1" t="inlineStr">
         <is>
-          <t>security protocol</t>
+          <t>information storage system</t>
         </is>
       </c>
       <c r="B972" t="n">
@@ -24740,7 +24740,7 @@
     <row r="973">
       <c r="A973" s="1" t="inlineStr">
         <is>
-          <t>information storage system</t>
+          <t>storage architecture</t>
         </is>
       </c>
       <c r="B973" t="n">
@@ -24765,7 +24765,7 @@
     <row r="974">
       <c r="A974" s="1" t="inlineStr">
         <is>
-          <t>storage architecture</t>
+          <t>distribute storage</t>
         </is>
       </c>
       <c r="B974" t="n">
@@ -24790,7 +24790,7 @@
     <row r="975">
       <c r="A975" s="1" t="inlineStr">
         <is>
-          <t>distribute storage</t>
+          <t>enterprise compute</t>
         </is>
       </c>
       <c r="B975" t="n">
@@ -24815,11 +24815,11 @@
     <row r="976">
       <c r="A976" s="1" t="inlineStr">
         <is>
-          <t>enterprise compute</t>
+          <t>network architecture</t>
         </is>
       </c>
       <c r="B976" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C976" t="n">
         <v>0</v>
@@ -24834,13 +24834,13 @@
         <v>0</v>
       </c>
       <c r="G976" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="1" t="inlineStr">
         <is>
-          <t>network architecture</t>
+          <t>network protocol</t>
         </is>
       </c>
       <c r="B977" t="n">
@@ -24865,7 +24865,7 @@
     <row r="978">
       <c r="A978" s="1" t="inlineStr">
         <is>
-          <t>network protocol</t>
+          <t>theory of computation</t>
         </is>
       </c>
       <c r="B978" t="n">
@@ -24890,7 +24890,7 @@
     <row r="979">
       <c r="A979" s="1" t="inlineStr">
         <is>
-          <t>theory of computation</t>
+          <t>model of computation</t>
         </is>
       </c>
       <c r="B979" t="n">
@@ -24915,11 +24915,11 @@
     <row r="980">
       <c r="A980" s="1" t="inlineStr">
         <is>
-          <t>model of computation</t>
+          <t>network performance evaluation</t>
         </is>
       </c>
       <c r="B980" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C980" t="n">
         <v>0</v>
@@ -24934,13 +24934,13 @@
         <v>0</v>
       </c>
       <c r="G980" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="1" t="inlineStr">
         <is>
-          <t>network performance evaluation</t>
+          <t>network performance analysis</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -24965,7 +24965,7 @@
     <row r="982">
       <c r="A982" s="1" t="inlineStr">
         <is>
-          <t>network performance analysis</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B982" t="n">
@@ -24990,7 +24990,7 @@
     <row r="983">
       <c r="A983" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="B983" t="n">
@@ -25015,7 +25015,7 @@
     <row r="984">
       <c r="A984" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>web</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -25040,7 +25040,7 @@
     <row r="985">
       <c r="A985" s="1" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>network type</t>
         </is>
       </c>
       <c r="B985" t="n">
@@ -25065,7 +25065,7 @@
     <row r="986">
       <c r="A986" s="1" t="inlineStr">
         <is>
-          <t>network type</t>
+          <t>overlay</t>
         </is>
       </c>
       <c r="B986" t="n">
@@ -25090,7 +25090,7 @@
     <row r="987">
       <c r="A987" s="1" t="inlineStr">
         <is>
-          <t>overlay</t>
+          <t>other logical network structure</t>
         </is>
       </c>
       <c r="B987" t="n">
@@ -25115,7 +25115,7 @@
     <row r="988">
       <c r="A988" s="1" t="inlineStr">
         <is>
-          <t>other logical network structure</t>
+          <t>online social network</t>
         </is>
       </c>
       <c r="B988" t="n">
@@ -25140,11 +25140,11 @@
     <row r="989">
       <c r="A989" s="1" t="inlineStr">
         <is>
-          <t>online social network</t>
+          <t>nash equilibrium</t>
         </is>
       </c>
       <c r="B989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C989" t="n">
         <v>0</v>
@@ -25159,17 +25159,17 @@
         <v>0</v>
       </c>
       <c r="G989" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="1" t="inlineStr">
         <is>
-          <t>nash equilibrium</t>
+          <t>multi-level governance</t>
         </is>
       </c>
       <c r="B990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C990" t="n">
         <v>0</v>
@@ -25184,13 +25184,13 @@
         <v>0</v>
       </c>
       <c r="G990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="1" t="inlineStr">
         <is>
-          <t>multi-level governance</t>
+          <t>51% attack</t>
         </is>
       </c>
       <c r="B991" t="n">
@@ -25215,7 +25215,7 @@
     <row r="992">
       <c r="A992" s="1" t="inlineStr">
         <is>
-          <t>51% attack</t>
+          <t>cloud storage</t>
         </is>
       </c>
       <c r="B992" t="n">
@@ -25240,7 +25240,7 @@
     <row r="993">
       <c r="A993" s="1" t="inlineStr">
         <is>
-          <t>cloud storage</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="B993" t="n">
@@ -25265,7 +25265,7 @@
     <row r="994">
       <c r="A994" s="1" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>data model</t>
         </is>
       </c>
       <c r="B994" t="n">
@@ -25290,7 +25290,7 @@
     <row r="995">
       <c r="A995" s="1" t="inlineStr">
         <is>
-          <t>data model</t>
+          <t>peer-to -peer network</t>
         </is>
       </c>
       <c r="B995" t="n">
@@ -25315,7 +25315,7 @@
     <row r="996">
       <c r="A996" s="1" t="inlineStr">
         <is>
-          <t>peer-to -peer network</t>
+          <t>smart phone</t>
         </is>
       </c>
       <c r="B996" t="n">
@@ -25340,11 +25340,11 @@
     <row r="997">
       <c r="A997" s="1" t="inlineStr">
         <is>
-          <t>smart phone</t>
+          <t>measurement</t>
         </is>
       </c>
       <c r="B997" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C997" t="n">
         <v>0</v>
@@ -25359,17 +25359,17 @@
         <v>0</v>
       </c>
       <c r="G997" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="1" t="inlineStr">
         <is>
-          <t>measurement</t>
+          <t>ddos</t>
         </is>
       </c>
       <c r="B998" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C998" t="n">
         <v>0</v>
@@ -25384,13 +25384,13 @@
         <v>0</v>
       </c>
       <c r="G998" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="1" t="inlineStr">
         <is>
-          <t>ddos</t>
+          <t>operate system</t>
         </is>
       </c>
       <c r="B999" t="n">
@@ -25415,11 +25415,11 @@
     <row r="1000">
       <c r="A1000" s="1" t="inlineStr">
         <is>
-          <t>operate system</t>
+          <t>sharding</t>
         </is>
       </c>
       <c r="B1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1000" t="n">
         <v>0</v>
@@ -25434,17 +25434,17 @@
         <v>0</v>
       </c>
       <c r="G1000" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="1" t="inlineStr">
         <is>
-          <t>sharding</t>
+          <t>first layer solution</t>
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1001" t="n">
         <v>0</v>
@@ -25459,13 +25459,13 @@
         <v>0</v>
       </c>
       <c r="G1001" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="1" t="inlineStr">
         <is>
-          <t>first layer solution</t>
+          <t>second layer solution</t>
         </is>
       </c>
       <c r="B1002" t="n">
@@ -25490,7 +25490,7 @@
     <row r="1003">
       <c r="A1003" s="1" t="inlineStr">
         <is>
-          <t>second layer solution</t>
+          <t>web server</t>
         </is>
       </c>
       <c r="B1003" t="n">
@@ -25515,7 +25515,7 @@
     <row r="1004">
       <c r="A1004" s="1" t="inlineStr">
         <is>
-          <t>web server</t>
+          <t>file system</t>
         </is>
       </c>
       <c r="B1004" t="n">
@@ -25540,7 +25540,7 @@
     <row r="1005">
       <c r="A1005" s="1" t="inlineStr">
         <is>
-          <t>file system</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B1005" t="n">
@@ -25565,7 +25565,7 @@
     <row r="1006">
       <c r="A1006" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>width</t>
         </is>
       </c>
       <c r="B1006" t="n">
@@ -25590,7 +25590,7 @@
     <row r="1007">
       <c r="A1007" s="1" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>rout</t>
         </is>
       </c>
       <c r="B1007" t="n">
@@ -25615,11 +25615,11 @@
     <row r="1008">
       <c r="A1008" s="1" t="inlineStr">
         <is>
-          <t>rout</t>
+          <t>software define network</t>
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1008" t="n">
         <v>0</v>
@@ -25634,17 +25634,17 @@
         <v>0</v>
       </c>
       <c r="G1008" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" s="1" t="inlineStr">
         <is>
-          <t>software define network</t>
+          <t>5g mobile communication</t>
         </is>
       </c>
       <c r="B1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1009" t="n">
         <v>0</v>
@@ -25659,13 +25659,13 @@
         <v>0</v>
       </c>
       <c r="G1009" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="inlineStr">
         <is>
-          <t>5g mobile communication</t>
+          <t>chaincode</t>
         </is>
       </c>
       <c r="B1010" t="n">
@@ -25690,7 +25690,7 @@
     <row r="1011">
       <c r="A1011" s="1" t="inlineStr">
         <is>
-          <t>chaincode</t>
+          <t>publish</t>
         </is>
       </c>
       <c r="B1011" t="n">
@@ -25715,7 +25715,7 @@
     <row r="1012">
       <c r="A1012" s="1" t="inlineStr">
         <is>
-          <t>publish</t>
+          <t>systematic survey</t>
         </is>
       </c>
       <c r="B1012" t="n">
@@ -25740,7 +25740,7 @@
     <row r="1013">
       <c r="A1013" s="1" t="inlineStr">
         <is>
-          <t>systematic survey</t>
+          <t>data acquisition</t>
         </is>
       </c>
       <c r="B1013" t="n">
@@ -25765,7 +25765,7 @@
     <row r="1014">
       <c r="A1014" s="1" t="inlineStr">
         <is>
-          <t>data acquisition</t>
+          <t>pattern classification</t>
         </is>
       </c>
       <c r="B1014" t="n">
@@ -25790,7 +25790,7 @@
     <row r="1015">
       <c r="A1015" s="1" t="inlineStr">
         <is>
-          <t>pattern classification</t>
+          <t>storage management</t>
         </is>
       </c>
       <c r="B1015" t="n">
@@ -25815,11 +25815,11 @@
     <row r="1016">
       <c r="A1016" s="1" t="inlineStr">
         <is>
-          <t>storage management</t>
+          <t>physical layer</t>
         </is>
       </c>
       <c r="B1016" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1016" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>0</v>
       </c>
       <c r="G1016" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1017">
       <c r="A1017" s="1" t="inlineStr">
         <is>
-          <t>physical layer</t>
+          <t>price</t>
         </is>
       </c>
       <c r="B1017" t="n">
@@ -25865,7 +25865,7 @@
     <row r="1018">
       <c r="A1018" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>energy management</t>
         </is>
       </c>
       <c r="B1018" t="n">
@@ -25890,7 +25890,7 @@
     <row r="1019">
       <c r="A1019" s="1" t="inlineStr">
         <is>
-          <t>energy management</t>
+          <t>energy resource</t>
         </is>
       </c>
       <c r="B1019" t="n">
@@ -25915,7 +25915,7 @@
     <row r="1020">
       <c r="A1020" s="1" t="inlineStr">
         <is>
-          <t>energy resource</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="B1020" t="n">
@@ -25940,11 +25940,11 @@
     <row r="1021">
       <c r="A1021" s="1" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>smart contract application</t>
         </is>
       </c>
       <c r="B1021" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C1021" t="n">
         <v>0</v>
@@ -25959,13 +25959,13 @@
         <v>0</v>
       </c>
       <c r="G1021" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" s="1" t="inlineStr">
         <is>
-          <t>smart contract application</t>
+          <t>smart contract operation</t>
         </is>
       </c>
       <c r="B1022" t="n">
@@ -25990,7 +25990,7 @@
     <row r="1023">
       <c r="A1023" s="1" t="inlineStr">
         <is>
-          <t>smart contract operation</t>
+          <t>recent advance in smart contract</t>
         </is>
       </c>
       <c r="B1023" t="n">
@@ -26015,11 +26015,11 @@
     <row r="1024">
       <c r="A1024" s="1" t="inlineStr">
         <is>
-          <t>recent advance in smart contract</t>
+          <t>adaptation model</t>
         </is>
       </c>
       <c r="B1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1024" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="G1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" s="1" t="inlineStr">
         <is>
-          <t>adaptation model</t>
+          <t>functionality</t>
         </is>
       </c>
       <c r="B1025" t="n">
@@ -26065,7 +26065,7 @@
     <row r="1026">
       <c r="A1026" s="1" t="inlineStr">
         <is>
-          <t>functionality</t>
+          <t>financial technology</t>
         </is>
       </c>
       <c r="B1026" t="n">
@@ -26090,7 +26090,7 @@
     <row r="1027">
       <c r="A1027" s="1" t="inlineStr">
         <is>
-          <t>financial technology</t>
+          <t>financial industry</t>
         </is>
       </c>
       <c r="B1027" t="n">
@@ -26115,7 +26115,7 @@
     <row r="1028">
       <c r="A1028" s="1" t="inlineStr">
         <is>
-          <t>financial industry</t>
+          <t>ethic</t>
         </is>
       </c>
       <c r="B1028" t="n">
@@ -26140,7 +26140,7 @@
     <row r="1029">
       <c r="A1029" s="1" t="inlineStr">
         <is>
-          <t>ethic</t>
+          <t>ethical challenge</t>
         </is>
       </c>
       <c r="B1029" t="n">
@@ -26165,7 +26165,7 @@
     <row r="1030">
       <c r="A1030" s="1" t="inlineStr">
         <is>
-          <t>ethical challenge</t>
+          <t>adoption</t>
         </is>
       </c>
       <c r="B1030" t="n">
@@ -26190,7 +26190,7 @@
     <row r="1031">
       <c r="A1031" s="1" t="inlineStr">
         <is>
-          <t>adoption</t>
+          <t>medical data</t>
         </is>
       </c>
       <c r="B1031" t="n">
@@ -26215,7 +26215,7 @@
     <row r="1032">
       <c r="A1032" s="1" t="inlineStr">
         <is>
-          <t>medical data</t>
+          <t>electronic health record system</t>
         </is>
       </c>
       <c r="B1032" t="n">
@@ -26240,7 +26240,7 @@
     <row r="1033">
       <c r="A1033" s="1" t="inlineStr">
         <is>
-          <t>electronic health record system</t>
+          <t>o2</t>
         </is>
       </c>
       <c r="B1033" t="n">
@@ -26265,7 +26265,7 @@
     <row r="1034">
       <c r="A1034" s="1" t="inlineStr">
         <is>
-          <t>o2</t>
+          <t>z1</t>
         </is>
       </c>
       <c r="B1034" t="n">
@@ -26290,7 +26290,7 @@
     <row r="1035">
       <c r="A1035" s="1" t="inlineStr">
         <is>
-          <t>z1</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="B1035" t="n">
@@ -26315,7 +26315,7 @@
     <row r="1036">
       <c r="A1036" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>mine industry</t>
         </is>
       </c>
       <c r="B1036" t="n">
@@ -26340,11 +26340,11 @@
     <row r="1037">
       <c r="A1037" s="1" t="inlineStr">
         <is>
-          <t>mine industry</t>
+          <t>food sustainability</t>
         </is>
       </c>
       <c r="B1037" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C1037" t="n">
         <v>0</v>
@@ -26359,17 +26359,17 @@
         <v>0</v>
       </c>
       <c r="G1037" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1038">
       <c r="A1038" s="1" t="inlineStr">
         <is>
-          <t>food sustainability</t>
+          <t>smart community</t>
         </is>
       </c>
       <c r="B1038" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C1038" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="G1038" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
       <c r="A1039" s="1" t="inlineStr">
         <is>
-          <t>smart community</t>
+          <t>smart healthcare</t>
         </is>
       </c>
       <c r="B1039" t="n">
@@ -26415,11 +26415,11 @@
     <row r="1040">
       <c r="A1040" s="1" t="inlineStr">
         <is>
-          <t>smart healthcare</t>
+          <t>health system</t>
         </is>
       </c>
       <c r="B1040" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1040" t="n">
         <v>0</v>
@@ -26434,17 +26434,17 @@
         <v>0</v>
       </c>
       <c r="G1040" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1041">
       <c r="A1041" s="1" t="inlineStr">
         <is>
-          <t>health system</t>
+          <t>cloud exchange</t>
         </is>
       </c>
       <c r="B1041" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1041" t="n">
         <v>0</v>
@@ -26459,13 +26459,13 @@
         <v>0</v>
       </c>
       <c r="G1041" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1042">
       <c r="A1042" s="1" t="inlineStr">
         <is>
-          <t>cloud exchange</t>
+          <t>reputation system</t>
         </is>
       </c>
       <c r="B1042" t="n">
@@ -26490,11 +26490,11 @@
     <row r="1043">
       <c r="A1043" s="1" t="inlineStr">
         <is>
-          <t>reputation system</t>
+          <t>internet of energy</t>
         </is>
       </c>
       <c r="B1043" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1043" t="n">
         <v>0</v>
@@ -26509,13 +26509,13 @@
         <v>0</v>
       </c>
       <c r="G1043" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1044">
       <c r="A1044" s="1" t="inlineStr">
         <is>
-          <t>internet of energy</t>
+          <t>vehicle-to-grid</t>
         </is>
       </c>
       <c r="B1044" t="n">
@@ -26540,11 +26540,11 @@
     <row r="1045">
       <c r="A1045" s="1" t="inlineStr">
         <is>
-          <t>vehicle-to-grid</t>
+          <t>unman aerial vehicle  network</t>
         </is>
       </c>
       <c r="B1045" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1045" t="n">
         <v>0</v>
@@ -26559,17 +26559,17 @@
         <v>0</v>
       </c>
       <c r="G1045" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1046">
       <c r="A1046" s="1" t="inlineStr">
         <is>
-          <t>unman aerial vehicle  network</t>
+          <t>smart factory</t>
         </is>
       </c>
       <c r="B1046" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1046" t="n">
         <v>0</v>
@@ -26584,17 +26584,17 @@
         <v>0</v>
       </c>
       <c r="G1046" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1047">
       <c r="A1047" s="1" t="inlineStr">
         <is>
-          <t>smart factory</t>
+          <t>adaptive requirement</t>
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C1047" t="n">
         <v>0</v>
@@ -26609,13 +26609,13 @@
         <v>0</v>
       </c>
       <c r="G1047" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048">
       <c r="A1048" s="1" t="inlineStr">
         <is>
-          <t>adaptive requirement</t>
+          <t>p2p data marketplace</t>
         </is>
       </c>
       <c r="B1048" t="n">
@@ -26640,7 +26640,7 @@
     <row r="1049">
       <c r="A1049" s="1" t="inlineStr">
         <is>
-          <t>p2p data marketplace</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="B1049" t="n">
@@ -26665,7 +26665,7 @@
     <row r="1050">
       <c r="A1050" s="1" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>homecare</t>
         </is>
       </c>
       <c r="B1050" t="n">
@@ -26690,11 +26690,11 @@
     <row r="1051">
       <c r="A1051" s="1" t="inlineStr">
         <is>
-          <t>homecare</t>
+          <t>aadhaar authentication</t>
         </is>
       </c>
       <c r="B1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1051" t="n">
         <v>0</v>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="G1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
       <c r="A1052" s="1" t="inlineStr">
         <is>
-          <t>aadhaar authentication</t>
+          <t>argon2id</t>
         </is>
       </c>
       <c r="B1052" t="n">
@@ -26740,7 +26740,7 @@
     <row r="1053">
       <c r="A1053" s="1" t="inlineStr">
         <is>
-          <t>argon2id</t>
+          <t>digilocker</t>
         </is>
       </c>
       <c r="B1053" t="n">
@@ -26765,7 +26765,7 @@
     <row r="1054">
       <c r="A1054" s="1" t="inlineStr">
         <is>
-          <t>digilocker</t>
+          <t>data analytics</t>
         </is>
       </c>
       <c r="B1054" t="n">
@@ -26790,7 +26790,7 @@
     <row r="1055">
       <c r="A1055" s="1" t="inlineStr">
         <is>
-          <t>data analytics</t>
+          <t>token offer</t>
         </is>
       </c>
       <c r="B1055" t="n">
@@ -26815,7 +26815,7 @@
     <row r="1056">
       <c r="A1056" s="1" t="inlineStr">
         <is>
-          <t>token offer</t>
+          <t>cryptoexchanges</t>
         </is>
       </c>
       <c r="B1056" t="n">
@@ -26840,7 +26840,7 @@
     <row r="1057">
       <c r="A1057" s="1" t="inlineStr">
         <is>
-          <t>cryptoexchanges</t>
+          <t>model-driven engineer</t>
         </is>
       </c>
       <c r="B1057" t="n">
@@ -26865,7 +26865,7 @@
     <row r="1058">
       <c r="A1058" s="1" t="inlineStr">
         <is>
-          <t>model-driven engineer</t>
+          <t>enterprise engineer</t>
         </is>
       </c>
       <c r="B1058" t="n">
@@ -26890,7 +26890,7 @@
     <row r="1059">
       <c r="A1059" s="1" t="inlineStr">
         <is>
-          <t>enterprise engineer</t>
+          <t>archimate</t>
         </is>
       </c>
       <c r="B1059" t="n">
@@ -26915,7 +26915,7 @@
     <row r="1060">
       <c r="A1060" s="1" t="inlineStr">
         <is>
-          <t>archimate</t>
+          <t>demo</t>
         </is>
       </c>
       <c r="B1060" t="n">
@@ -26940,7 +26940,7 @@
     <row r="1061">
       <c r="A1061" s="1" t="inlineStr">
         <is>
-          <t>demo</t>
+          <t>hyperledger composer</t>
         </is>
       </c>
       <c r="B1061" t="n">
@@ -26965,7 +26965,7 @@
     <row r="1062">
       <c r="A1062" s="1" t="inlineStr">
         <is>
-          <t>hyperledger composer</t>
+          <t>ecommerce application</t>
         </is>
       </c>
       <c r="B1062" t="n">
@@ -26990,7 +26990,7 @@
     <row r="1063">
       <c r="A1063" s="1" t="inlineStr">
         <is>
-          <t>ecommerce application</t>
+          <t>transform</t>
         </is>
       </c>
       <c r="B1063" t="n">
@@ -27015,7 +27015,7 @@
     <row r="1064">
       <c r="A1064" s="1" t="inlineStr">
         <is>
-          <t>transform</t>
+          <t>dimension</t>
         </is>
       </c>
       <c r="B1064" t="n">
@@ -27040,7 +27040,7 @@
     <row r="1065">
       <c r="A1065" s="1" t="inlineStr">
         <is>
-          <t>dimension</t>
+          <t>enterprise</t>
         </is>
       </c>
       <c r="B1065" t="n">
@@ -27065,7 +27065,7 @@
     <row r="1066">
       <c r="A1066" s="1" t="inlineStr">
         <is>
-          <t>enterprise</t>
+          <t>virtual item</t>
         </is>
       </c>
       <c r="B1066" t="n">
@@ -27090,7 +27090,7 @@
     <row r="1067">
       <c r="A1067" s="1" t="inlineStr">
         <is>
-          <t>virtual item</t>
+          <t>platform plan</t>
         </is>
       </c>
       <c r="B1067" t="n">
@@ -27115,7 +27115,7 @@
     <row r="1068">
       <c r="A1068" s="1" t="inlineStr">
         <is>
-          <t>platform plan</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="B1068" t="n">
@@ -27140,7 +27140,7 @@
     <row r="1069">
       <c r="A1069" s="1" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>end-to-end supply chain</t>
         </is>
       </c>
       <c r="B1069" t="n">
@@ -27165,7 +27165,7 @@
     <row r="1070">
       <c r="A1070" s="1" t="inlineStr">
         <is>
-          <t>end-to-end supply chain</t>
+          <t>research direction</t>
         </is>
       </c>
       <c r="B1070" t="n">
@@ -27190,7 +27190,7 @@
     <row r="1071">
       <c r="A1071" s="1" t="inlineStr">
         <is>
-          <t>research direction</t>
+          <t>digital health</t>
         </is>
       </c>
       <c r="B1071" t="n">
@@ -27215,7 +27215,7 @@
     <row r="1072">
       <c r="A1072" s="1" t="inlineStr">
         <is>
-          <t>digital health</t>
+          <t>mobile compute</t>
         </is>
       </c>
       <c r="B1072" t="n">
@@ -27240,7 +27240,7 @@
     <row r="1073">
       <c r="A1073" s="1" t="inlineStr">
         <is>
-          <t>mobile compute</t>
+          <t>mobile application</t>
         </is>
       </c>
       <c r="B1073" t="n">
@@ -27265,7 +27265,7 @@
     <row r="1074">
       <c r="A1074" s="1" t="inlineStr">
         <is>
-          <t>mobile application</t>
+          <t>majority protocol</t>
         </is>
       </c>
       <c r="B1074" t="n">
@@ -27290,7 +27290,7 @@
     <row r="1075">
       <c r="A1075" s="1" t="inlineStr">
         <is>
-          <t>majority protocol</t>
+          <t>gpu compute</t>
         </is>
       </c>
       <c r="B1075" t="n">
@@ -27315,7 +27315,7 @@
     <row r="1076">
       <c r="A1076" s="1" t="inlineStr">
         <is>
-          <t>gpu compute</t>
+          <t>product recall</t>
         </is>
       </c>
       <c r="B1076" t="n">
@@ -27340,7 +27340,7 @@
     <row r="1077">
       <c r="A1077" s="1" t="inlineStr">
         <is>
-          <t>product recall</t>
+          <t>counterfeit</t>
         </is>
       </c>
       <c r="B1077" t="n">
@@ -27365,7 +27365,7 @@
     <row r="1078">
       <c r="A1078" s="1" t="inlineStr">
         <is>
-          <t>counterfeit</t>
+          <t>serialization</t>
         </is>
       </c>
       <c r="B1078" t="n">
@@ -27390,11 +27390,11 @@
     <row r="1079">
       <c r="A1079" s="1" t="inlineStr">
         <is>
-          <t>serialization</t>
+          <t>power exchange</t>
         </is>
       </c>
       <c r="B1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1079" t="n">
         <v>0</v>
@@ -27409,13 +27409,13 @@
         <v>0</v>
       </c>
       <c r="G1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" s="1" t="inlineStr">
         <is>
-          <t>power exchange</t>
+          <t>decentralize market</t>
         </is>
       </c>
       <c r="B1080" t="n">
@@ -27440,11 +27440,11 @@
     <row r="1081">
       <c r="A1081" s="1" t="inlineStr">
         <is>
-          <t>decentralize market</t>
+          <t>iot security</t>
         </is>
       </c>
       <c r="B1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1081" t="n">
         <v>0</v>
@@ -27459,13 +27459,13 @@
         <v>0</v>
       </c>
       <c r="G1081" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" s="1" t="inlineStr">
         <is>
-          <t>iot security</t>
+          <t>raspberry pi</t>
         </is>
       </c>
       <c r="B1082" t="n">
@@ -27490,7 +27490,7 @@
     <row r="1083">
       <c r="A1083" s="1" t="inlineStr">
         <is>
-          <t>raspberry pi</t>
+          <t>share resource</t>
         </is>
       </c>
       <c r="B1083" t="n">
@@ -27515,7 +27515,7 @@
     <row r="1084">
       <c r="A1084" s="1" t="inlineStr">
         <is>
-          <t>share resource</t>
+          <t>internet 3.0</t>
         </is>
       </c>
       <c r="B1084" t="n">
@@ -27540,7 +27540,7 @@
     <row r="1085">
       <c r="A1085" s="1" t="inlineStr">
         <is>
-          <t>internet 3.0</t>
+          <t>hardware security module</t>
         </is>
       </c>
       <c r="B1085" t="n">
@@ -27565,7 +27565,7 @@
     <row r="1086">
       <c r="A1086" s="1" t="inlineStr">
         <is>
-          <t>hardware security module</t>
+          <t>physical unclonable function</t>
         </is>
       </c>
       <c r="B1086" t="n">
@@ -27590,7 +27590,7 @@
     <row r="1087">
       <c r="A1087" s="1" t="inlineStr">
         <is>
-          <t>physical unclonable function</t>
+          <t>crytography</t>
         </is>
       </c>
       <c r="B1087" t="n">
@@ -27615,7 +27615,7 @@
     <row r="1088">
       <c r="A1088" s="1" t="inlineStr">
         <is>
-          <t>crytography</t>
+          <t>data trust</t>
         </is>
       </c>
       <c r="B1088" t="n">
@@ -27640,7 +27640,7 @@
     <row r="1089">
       <c r="A1089" s="1" t="inlineStr">
         <is>
-          <t>data trust</t>
+          <t>bibliometric analysis</t>
         </is>
       </c>
       <c r="B1089" t="n">
@@ -27665,7 +27665,7 @@
     <row r="1090">
       <c r="A1090" s="1" t="inlineStr">
         <is>
-          <t>bibliometric analysis</t>
+          <t>power system</t>
         </is>
       </c>
       <c r="B1090" t="n">
@@ -27690,7 +27690,7 @@
     <row r="1091">
       <c r="A1091" s="1" t="inlineStr">
         <is>
-          <t>power system</t>
+          <t>electrical energy trade</t>
         </is>
       </c>
       <c r="B1091" t="n">
@@ -27715,7 +27715,7 @@
     <row r="1092">
       <c r="A1092" s="1" t="inlineStr">
         <is>
-          <t>electrical energy trade</t>
+          <t>security challenge</t>
         </is>
       </c>
       <c r="B1092" t="n">
@@ -27740,11 +27740,11 @@
     <row r="1093">
       <c r="A1093" s="1" t="inlineStr">
         <is>
-          <t>security challenge</t>
+          <t>mean-risk analysis</t>
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1093" t="n">
         <v>0</v>
@@ -27759,13 +27759,13 @@
         <v>0</v>
       </c>
       <c r="G1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" s="1" t="inlineStr">
         <is>
-          <t>mean-risk analysis</t>
+          <t>fashionable product</t>
         </is>
       </c>
       <c r="B1094" t="n">
@@ -27790,11 +27790,11 @@
     <row r="1095">
       <c r="A1095" s="1" t="inlineStr">
         <is>
-          <t>fashionable product</t>
+          <t>identity document</t>
         </is>
       </c>
       <c r="B1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1095" t="n">
         <v>0</v>
@@ -27809,13 +27809,13 @@
         <v>0</v>
       </c>
       <c r="G1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" s="1" t="inlineStr">
         <is>
-          <t>identity document</t>
+          <t>decentralize pki</t>
         </is>
       </c>
       <c r="B1096" t="n">
@@ -27840,7 +27840,7 @@
     <row r="1097">
       <c r="A1097" s="1" t="inlineStr">
         <is>
-          <t>decentralize pki</t>
+          <t>reverse logistics</t>
         </is>
       </c>
       <c r="B1097" t="n">
@@ -27865,7 +27865,7 @@
     <row r="1098">
       <c r="A1098" s="1" t="inlineStr">
         <is>
-          <t>reverse logistics</t>
+          <t>rfid</t>
         </is>
       </c>
       <c r="B1098" t="n">
@@ -27890,7 +27890,7 @@
     <row r="1099">
       <c r="A1099" s="1" t="inlineStr">
         <is>
-          <t>rfid</t>
+          <t>tam</t>
         </is>
       </c>
       <c r="B1099" t="n">
@@ -27915,7 +27915,7 @@
     <row r="1100">
       <c r="A1100" s="1" t="inlineStr">
         <is>
-          <t>tam</t>
+          <t>risk-benefit</t>
         </is>
       </c>
       <c r="B1100" t="n">
@@ -27940,7 +27940,7 @@
     <row r="1101">
       <c r="A1101" s="1" t="inlineStr">
         <is>
-          <t>risk-benefit</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="B1101" t="n">
@@ -27965,7 +27965,7 @@
     <row r="1102">
       <c r="A1102" s="1" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>technical risk</t>
         </is>
       </c>
       <c r="B1102" t="n">
@@ -27990,7 +27990,7 @@
     <row r="1103">
       <c r="A1103" s="1" t="inlineStr">
         <is>
-          <t>technical risk</t>
+          <t>risk research</t>
         </is>
       </c>
       <c r="B1103" t="n">
@@ -28015,7 +28015,7 @@
     <row r="1104">
       <c r="A1104" s="1" t="inlineStr">
         <is>
-          <t>risk research</t>
+          <t>distribute registry</t>
         </is>
       </c>
       <c r="B1104" t="n">
@@ -28040,7 +28040,7 @@
     <row r="1105">
       <c r="A1105" s="1" t="inlineStr">
         <is>
-          <t>distribute registry</t>
+          <t>public procurement</t>
         </is>
       </c>
       <c r="B1105" t="n">
@@ -28065,7 +28065,7 @@
     <row r="1106">
       <c r="A1106" s="1" t="inlineStr">
         <is>
-          <t>public procurement</t>
+          <t>electronic registration</t>
         </is>
       </c>
       <c r="B1106" t="n">
@@ -28090,7 +28090,7 @@
     <row r="1107">
       <c r="A1107" s="1" t="inlineStr">
         <is>
-          <t>electronic registration</t>
+          <t>international trade deal</t>
         </is>
       </c>
       <c r="B1107" t="n">
@@ -28115,7 +28115,7 @@
     <row r="1108">
       <c r="A1108" s="1" t="inlineStr">
         <is>
-          <t>international trade deal</t>
+          <t>к10</t>
         </is>
       </c>
       <c r="B1108" t="n">
@@ -28140,7 +28140,7 @@
     <row r="1109">
       <c r="A1109" s="1" t="inlineStr">
         <is>
-          <t>к10</t>
+          <t>k15</t>
         </is>
       </c>
       <c r="B1109" t="n">
@@ -28165,7 +28165,7 @@
     <row r="1110">
       <c r="A1110" s="1" t="inlineStr">
         <is>
-          <t>k15</t>
+          <t>k41</t>
         </is>
       </c>
       <c r="B1110" t="n">
@@ -28190,7 +28190,7 @@
     <row r="1111">
       <c r="A1111" s="1" t="inlineStr">
         <is>
-          <t>k41</t>
+          <t>o38</t>
         </is>
       </c>
       <c r="B1111" t="n">
@@ -28215,7 +28215,7 @@
     <row r="1112">
       <c r="A1112" s="1" t="inlineStr">
         <is>
-          <t>o38</t>
+          <t>l88</t>
         </is>
       </c>
       <c r="B1112" t="n">
@@ -28240,7 +28240,7 @@
     <row r="1113">
       <c r="A1113" s="1" t="inlineStr">
         <is>
-          <t>l88</t>
+          <t>third party authenticator</t>
         </is>
       </c>
       <c r="B1113" t="n">
@@ -28265,7 +28265,7 @@
     <row r="1114">
       <c r="A1114" s="1" t="inlineStr">
         <is>
-          <t>third party authenticator</t>
+          <t>public audit</t>
         </is>
       </c>
       <c r="B1114" t="n">
@@ -28290,7 +28290,7 @@
     <row r="1115">
       <c r="A1115" s="1" t="inlineStr">
         <is>
-          <t>public audit</t>
+          <t>tax collection</t>
         </is>
       </c>
       <c r="B1115" t="n">
@@ -28315,7 +28315,7 @@
     <row r="1116">
       <c r="A1116" s="1" t="inlineStr">
         <is>
-          <t>tax collection</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B1116" t="n">
@@ -28340,7 +28340,7 @@
     <row r="1117">
       <c r="A1117" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>technology application</t>
         </is>
       </c>
       <c r="B1117" t="n">
@@ -28365,7 +28365,7 @@
     <row r="1118">
       <c r="A1118" s="1" t="inlineStr">
         <is>
-          <t>technology application</t>
+          <t>technology innovation</t>
         </is>
       </c>
       <c r="B1118" t="n">
@@ -28390,11 +28390,11 @@
     <row r="1119">
       <c r="A1119" s="1" t="inlineStr">
         <is>
-          <t>technology innovation</t>
+          <t>bitcoin mine</t>
         </is>
       </c>
       <c r="B1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1119" t="n">
         <v>0</v>
@@ -28409,13 +28409,13 @@
         <v>0</v>
       </c>
       <c r="G1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" s="1" t="inlineStr">
         <is>
-          <t>bitcoin mine</t>
+          <t>dynamic game theory</t>
         </is>
       </c>
       <c r="B1120" t="n">
@@ -28440,7 +28440,7 @@
     <row r="1121">
       <c r="A1121" s="1" t="inlineStr">
         <is>
-          <t>dynamic game theory</t>
+          <t>differential game</t>
         </is>
       </c>
       <c r="B1121" t="n">
@@ -28465,7 +28465,7 @@
     <row r="1122">
       <c r="A1122" s="1" t="inlineStr">
         <is>
-          <t>differential game</t>
+          <t>hamilton–jacobi–bellman equation</t>
         </is>
       </c>
       <c r="B1122" t="n">
@@ -28490,7 +28490,7 @@
     <row r="1123">
       <c r="A1123" s="1" t="inlineStr">
         <is>
-          <t>hamilton–jacobi–bellman equation</t>
+          <t>social optimum</t>
         </is>
       </c>
       <c r="B1123" t="n">
@@ -28515,7 +28515,7 @@
     <row r="1124">
       <c r="A1124" s="1" t="inlineStr">
         <is>
-          <t>social optimum</t>
+          <t>myopic nash equilibrium</t>
         </is>
       </c>
       <c r="B1124" t="n">
@@ -28540,7 +28540,7 @@
     <row r="1125">
       <c r="A1125" s="1" t="inlineStr">
         <is>
-          <t>myopic nash equilibrium</t>
+          <t>pigovian tax</t>
         </is>
       </c>
       <c r="B1125" t="n">
@@ -28565,11 +28565,11 @@
     <row r="1126">
       <c r="A1126" s="1" t="inlineStr">
         <is>
-          <t>pigovian tax</t>
+          <t>ttp</t>
         </is>
       </c>
       <c r="B1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1126" t="n">
         <v>0</v>
@@ -28584,13 +28584,13 @@
         <v>0</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" s="1" t="inlineStr">
         <is>
-          <t>ttp</t>
+          <t>cyberattacks</t>
         </is>
       </c>
       <c r="B1127" t="n">
@@ -28615,7 +28615,7 @@
     <row r="1128">
       <c r="A1128" s="1" t="inlineStr">
         <is>
-          <t>cyberattacks</t>
+          <t>decentralise</t>
         </is>
       </c>
       <c r="B1128" t="n">
@@ -28640,7 +28640,7 @@
     <row r="1129">
       <c r="A1129" s="1" t="inlineStr">
         <is>
-          <t>decentralise</t>
+          <t>cft</t>
         </is>
       </c>
       <c r="B1129" t="n">
@@ -28665,7 +28665,7 @@
     <row r="1130">
       <c r="A1130" s="1" t="inlineStr">
         <is>
-          <t>cft</t>
+          <t>ibft</t>
         </is>
       </c>
       <c r="B1130" t="n">
@@ -28690,7 +28690,7 @@
     <row r="1131">
       <c r="A1131" s="1" t="inlineStr">
         <is>
-          <t>ibft</t>
+          <t>steganography</t>
         </is>
       </c>
       <c r="B1131" t="n">
@@ -28715,11 +28715,11 @@
     <row r="1132">
       <c r="A1132" s="1" t="inlineStr">
         <is>
-          <t>steganography</t>
+          <t>disruptive technology</t>
         </is>
       </c>
       <c r="B1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1132" t="n">
         <v>0</v>
@@ -28734,17 +28734,17 @@
         <v>0</v>
       </c>
       <c r="G1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" s="1" t="inlineStr">
         <is>
-          <t>disruptive technology</t>
+          <t>token economy</t>
         </is>
       </c>
       <c r="B1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1133" t="n">
         <v>0</v>
@@ -28759,13 +28759,13 @@
         <v>0</v>
       </c>
       <c r="G1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" s="1" t="inlineStr">
         <is>
-          <t>token economy</t>
+          <t>liechtenstein</t>
         </is>
       </c>
       <c r="B1134" t="n">
@@ -28790,7 +28790,7 @@
     <row r="1135">
       <c r="A1135" s="1" t="inlineStr">
         <is>
-          <t>liechtenstein</t>
+          <t>act</t>
         </is>
       </c>
       <c r="B1135" t="n">
@@ -28815,7 +28815,7 @@
     <row r="1136">
       <c r="A1136" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>fatf</t>
         </is>
       </c>
       <c r="B1136" t="n">
@@ -28840,7 +28840,7 @@
     <row r="1137">
       <c r="A1137" s="1" t="inlineStr">
         <is>
-          <t>fatf</t>
+          <t>european parliament</t>
         </is>
       </c>
       <c r="B1137" t="n">
@@ -28865,7 +28865,7 @@
     <row r="1138">
       <c r="A1138" s="1" t="inlineStr">
         <is>
-          <t>european parliament</t>
+          <t>money launder</t>
         </is>
       </c>
       <c r="B1138" t="n">
@@ -28890,7 +28890,7 @@
     <row r="1139">
       <c r="A1139" s="1" t="inlineStr">
         <is>
-          <t>money launder</t>
+          <t>terrorism finance</t>
         </is>
       </c>
       <c r="B1139" t="n">
@@ -28915,7 +28915,7 @@
     <row r="1140">
       <c r="A1140" s="1" t="inlineStr">
         <is>
-          <t>terrorism finance</t>
+          <t>corruption</t>
         </is>
       </c>
       <c r="B1140" t="n">
@@ -28940,7 +28940,7 @@
     <row r="1141">
       <c r="A1141" s="1" t="inlineStr">
         <is>
-          <t>corruption</t>
+          <t>immutable</t>
         </is>
       </c>
       <c r="B1141" t="n">
@@ -28965,7 +28965,7 @@
     <row r="1142">
       <c r="A1142" s="1" t="inlineStr">
         <is>
-          <t>immutable</t>
+          <t>multimedia</t>
         </is>
       </c>
       <c r="B1142" t="n">
@@ -28990,7 +28990,7 @@
     <row r="1143">
       <c r="A1143" s="1" t="inlineStr">
         <is>
-          <t>multimedia</t>
+          <t>secure multi-party computation</t>
         </is>
       </c>
       <c r="B1143" t="n">
@@ -29015,7 +29015,7 @@
     <row r="1144">
       <c r="A1144" s="1" t="inlineStr">
         <is>
-          <t>secure multi-party computation</t>
+          <t>privacy-preserving technology</t>
         </is>
       </c>
       <c r="B1144" t="n">
@@ -29040,7 +29040,7 @@
     <row r="1145">
       <c r="A1145" s="1" t="inlineStr">
         <is>
-          <t>privacy-preserving technology</t>
+          <t>another keyword</t>
         </is>
       </c>
       <c r="B1145" t="n">
@@ -29065,7 +29065,7 @@
     <row r="1146">
       <c r="A1146" s="1" t="inlineStr">
         <is>
-          <t>another keyword</t>
+          <t>ardization</t>
         </is>
       </c>
       <c r="B1146" t="n">
@@ -29090,7 +29090,7 @@
     <row r="1147">
       <c r="A1147" s="1" t="inlineStr">
         <is>
-          <t>ardization</t>
+          <t>system engineer</t>
         </is>
       </c>
       <c r="B1147" t="n">
@@ -29115,7 +29115,7 @@
     <row r="1148">
       <c r="A1148" s="1" t="inlineStr">
         <is>
-          <t>system engineer</t>
+          <t>bite coin</t>
         </is>
       </c>
       <c r="B1148" t="n">
@@ -29140,11 +29140,11 @@
     <row r="1149">
       <c r="A1149" s="1" t="inlineStr">
         <is>
-          <t>bite coin</t>
+          <t>latent dirichlet allocation</t>
         </is>
       </c>
       <c r="B1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1149" t="n">
         <v>0</v>
@@ -29159,17 +29159,17 @@
         <v>0</v>
       </c>
       <c r="G1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" s="1" t="inlineStr">
         <is>
-          <t>latent dirichlet allocation</t>
+          <t>technology convergence</t>
         </is>
       </c>
       <c r="B1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1150" t="n">
         <v>0</v>
@@ -29184,13 +29184,13 @@
         <v>0</v>
       </c>
       <c r="G1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" s="1" t="inlineStr">
         <is>
-          <t>technology convergence</t>
+          <t>construction contract</t>
         </is>
       </c>
       <c r="B1151" t="n">
@@ -29215,7 +29215,7 @@
     <row r="1152">
       <c r="A1152" s="1" t="inlineStr">
         <is>
-          <t>construction contract</t>
+          <t>cost management</t>
         </is>
       </c>
       <c r="B1152" t="n">
@@ -29240,7 +29240,7 @@
     <row r="1153">
       <c r="A1153" s="1" t="inlineStr">
         <is>
-          <t>cost management</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="B1153" t="n">
@@ -29265,7 +29265,7 @@
     <row r="1154">
       <c r="A1154" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>issue</t>
         </is>
       </c>
       <c r="B1154" t="n">
@@ -29290,7 +29290,7 @@
     <row r="1155">
       <c r="A1155" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
+          <t>construction supply chain</t>
         </is>
       </c>
       <c r="B1155" t="n">
@@ -29315,7 +29315,7 @@
     <row r="1156">
       <c r="A1156" s="1" t="inlineStr">
         <is>
-          <t>construction supply chain</t>
+          <t>threat model analysis</t>
         </is>
       </c>
       <c r="B1156" t="n">
@@ -29340,7 +29340,7 @@
     <row r="1157">
       <c r="A1157" s="1" t="inlineStr">
         <is>
-          <t>threat model analysis</t>
+          <t>security level analysis</t>
         </is>
       </c>
       <c r="B1157" t="n">
@@ -29365,7 +29365,7 @@
     <row r="1158">
       <c r="A1158" s="1" t="inlineStr">
         <is>
-          <t>security level analysis</t>
+          <t>digital technology</t>
         </is>
       </c>
       <c r="B1158" t="n">
@@ -29390,7 +29390,7 @@
     <row r="1159">
       <c r="A1159" s="1" t="inlineStr">
         <is>
-          <t>digital technology</t>
+          <t>connect vehicle</t>
         </is>
       </c>
       <c r="B1159" t="n">
@@ -29415,11 +29415,11 @@
     <row r="1160">
       <c r="A1160" s="1" t="inlineStr">
         <is>
-          <t>connect vehicle</t>
+          <t>initial coin offer</t>
         </is>
       </c>
       <c r="B1160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1160" t="n">
         <v>0</v>
@@ -29434,13 +29434,13 @@
         <v>0</v>
       </c>
       <c r="G1160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" s="1" t="inlineStr">
         <is>
-          <t>initial coin offer</t>
+          <t>l26</t>
         </is>
       </c>
       <c r="B1161" t="n">
@@ -29465,7 +29465,7 @@
     <row r="1162">
       <c r="A1162" s="1" t="inlineStr">
         <is>
-          <t>l26</t>
+          <t>n20</t>
         </is>
       </c>
       <c r="B1162" t="n">
@@ -29490,7 +29490,7 @@
     <row r="1163">
       <c r="A1163" s="1" t="inlineStr">
         <is>
-          <t>n20</t>
+          <t>n70</t>
         </is>
       </c>
       <c r="B1163" t="n">
@@ -29515,11 +29515,11 @@
     <row r="1164">
       <c r="A1164" s="1" t="inlineStr">
         <is>
-          <t>n70</t>
+          <t>market</t>
         </is>
       </c>
       <c r="B1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1164" t="n">
         <v>0</v>
@@ -29534,13 +29534,13 @@
         <v>0</v>
       </c>
       <c r="G1164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" s="1" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>uae</t>
         </is>
       </c>
       <c r="B1165" t="n">
@@ -29565,7 +29565,7 @@
     <row r="1166">
       <c r="A1166" s="1" t="inlineStr">
         <is>
-          <t>uae</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="B1166" t="n">
@@ -29590,7 +29590,7 @@
     <row r="1167">
       <c r="A1167" s="1" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B1167" t="n">
@@ -29615,7 +29615,7 @@
     <row r="1168">
       <c r="A1168" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>data storage</t>
         </is>
       </c>
       <c r="B1168" t="n">
@@ -29640,7 +29640,7 @@
     <row r="1169">
       <c r="A1169" s="1" t="inlineStr">
         <is>
-          <t>data storage</t>
+          <t>key-value</t>
         </is>
       </c>
       <c r="B1169" t="n">
@@ -29665,7 +29665,7 @@
     <row r="1170">
       <c r="A1170" s="1" t="inlineStr">
         <is>
-          <t>key-value</t>
+          <t>leveldb</t>
         </is>
       </c>
       <c r="B1170" t="n">
@@ -29690,7 +29690,7 @@
     <row r="1171">
       <c r="A1171" s="1" t="inlineStr">
         <is>
-          <t>leveldb</t>
+          <t>rocksdb</t>
         </is>
       </c>
       <c r="B1171" t="n">
@@ -29715,7 +29715,7 @@
     <row r="1172">
       <c r="A1172" s="1" t="inlineStr">
         <is>
-          <t>rocksdb</t>
+          <t>electoral process</t>
         </is>
       </c>
       <c r="B1172" t="n">
@@ -29740,7 +29740,7 @@
     <row r="1173">
       <c r="A1173" s="1" t="inlineStr">
         <is>
-          <t>electoral process</t>
+          <t>ballot-box</t>
         </is>
       </c>
       <c r="B1173" t="n">
@@ -29765,7 +29765,7 @@
     <row r="1174">
       <c r="A1174" s="1" t="inlineStr">
         <is>
-          <t>ballot-box</t>
+          <t>vote system</t>
         </is>
       </c>
       <c r="B1174" t="n">
@@ -29790,7 +29790,7 @@
     <row r="1175">
       <c r="A1175" s="1" t="inlineStr">
         <is>
-          <t>vote system</t>
+          <t>africa</t>
         </is>
       </c>
       <c r="B1175" t="n">
@@ -29815,11 +29815,11 @@
     <row r="1176">
       <c r="A1176" s="1" t="inlineStr">
         <is>
-          <t>africa</t>
+          <t>insurance market</t>
         </is>
       </c>
       <c r="B1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1176" t="n">
         <v>0</v>
@@ -29834,13 +29834,13 @@
         <v>0</v>
       </c>
       <c r="G1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" s="1" t="inlineStr">
         <is>
-          <t>insurance market</t>
+          <t>steep</t>
         </is>
       </c>
       <c r="B1177" t="n">
@@ -29865,11 +29865,11 @@
     <row r="1178">
       <c r="A1178" s="1" t="inlineStr">
         <is>
-          <t>steep</t>
+          <t>security threat</t>
         </is>
       </c>
       <c r="B1178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1178" t="n">
         <v>0</v>
@@ -29884,17 +29884,17 @@
         <v>0</v>
       </c>
       <c r="G1178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" s="1" t="inlineStr">
         <is>
-          <t>security threat</t>
+          <t>main path analysis</t>
         </is>
       </c>
       <c r="B1179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1179" t="n">
         <v>0</v>
@@ -29909,17 +29909,17 @@
         <v>0</v>
       </c>
       <c r="G1179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" s="1" t="inlineStr">
         <is>
-          <t>main path analysis</t>
+          <t>cross border</t>
         </is>
       </c>
       <c r="B1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1180" t="n">
         <v>0</v>
@@ -29934,13 +29934,13 @@
         <v>0</v>
       </c>
       <c r="G1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" s="1" t="inlineStr">
         <is>
-          <t>cross border</t>
+          <t>custom procedure</t>
         </is>
       </c>
       <c r="B1181" t="n">
@@ -29965,7 +29965,7 @@
     <row r="1182">
       <c r="A1182" s="1" t="inlineStr">
         <is>
-          <t>custom procedure</t>
+          <t>intelligence unit</t>
         </is>
       </c>
       <c r="B1182" t="n">
@@ -29990,7 +29990,7 @@
     <row r="1183">
       <c r="A1183" s="1" t="inlineStr">
         <is>
-          <t>intelligence unit</t>
+          <t>investigation unit</t>
         </is>
       </c>
       <c r="B1183" t="n">
@@ -30015,11 +30015,11 @@
     <row r="1184">
       <c r="A1184" s="1" t="inlineStr">
         <is>
-          <t>investigation unit</t>
+          <t>quantum cryptography</t>
         </is>
       </c>
       <c r="B1184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1184" t="n">
         <v>0</v>
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="G1184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" s="1" t="inlineStr">
         <is>
-          <t>quantum cryptography</t>
+          <t>quantum money</t>
         </is>
       </c>
       <c r="B1185" t="n">
@@ -30065,11 +30065,11 @@
     <row r="1186">
       <c r="A1186" s="1" t="inlineStr">
         <is>
-          <t>quantum money</t>
+          <t>evaluation framework</t>
         </is>
       </c>
       <c r="B1186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1186" t="n">
         <v>0</v>
@@ -30084,13 +30084,13 @@
         <v>0</v>
       </c>
       <c r="G1186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" s="1" t="inlineStr">
         <is>
-          <t>evaluation framework</t>
+          <t>empirical evaluation</t>
         </is>
       </c>
       <c r="B1187" t="n">
@@ -30115,7 +30115,7 @@
     <row r="1188">
       <c r="A1188" s="1" t="inlineStr">
         <is>
-          <t>empirical evaluation</t>
+          <t>tor</t>
         </is>
       </c>
       <c r="B1188" t="n">
@@ -30140,7 +30140,7 @@
     <row r="1189">
       <c r="A1189" s="1" t="inlineStr">
         <is>
-          <t>tor</t>
+          <t>onion service</t>
         </is>
       </c>
       <c r="B1189" t="n">
@@ -30165,7 +30165,7 @@
     <row r="1190">
       <c r="A1190" s="1" t="inlineStr">
         <is>
-          <t>onion service</t>
+          <t>pii</t>
         </is>
       </c>
       <c r="B1190" t="n">
@@ -30190,7 +30190,7 @@
     <row r="1191">
       <c r="A1191" s="1" t="inlineStr">
         <is>
-          <t>pii</t>
+          <t>internet of medical thing</t>
         </is>
       </c>
       <c r="B1191" t="n">
@@ -30215,7 +30215,7 @@
     <row r="1192">
       <c r="A1192" s="1" t="inlineStr">
         <is>
-          <t>internet of medical thing</t>
+          <t>tourism market</t>
         </is>
       </c>
       <c r="B1192" t="n">
@@ -30240,7 +30240,7 @@
     <row r="1193">
       <c r="A1193" s="1" t="inlineStr">
         <is>
-          <t>tourism market</t>
+          <t>healthcare application</t>
         </is>
       </c>
       <c r="B1193" t="n">
@@ -30265,7 +30265,7 @@
     <row r="1194">
       <c r="A1194" s="1" t="inlineStr">
         <is>
-          <t>healthcare application</t>
+          <t>bibliometric study</t>
         </is>
       </c>
       <c r="B1194" t="n">
@@ -30290,7 +30290,7 @@
     <row r="1195">
       <c r="A1195" s="1" t="inlineStr">
         <is>
-          <t>bibliometric study</t>
+          <t>management account</t>
         </is>
       </c>
       <c r="B1195" t="n">
@@ -30315,7 +30315,7 @@
     <row r="1196">
       <c r="A1196" s="1" t="inlineStr">
         <is>
-          <t>management account</t>
+          <t>financial account</t>
         </is>
       </c>
       <c r="B1196" t="n">
@@ -30340,7 +30340,7 @@
     <row r="1197">
       <c r="A1197" s="1" t="inlineStr">
         <is>
-          <t>financial account</t>
+          <t>technology integration</t>
         </is>
       </c>
       <c r="B1197" t="n">
@@ -30365,7 +30365,7 @@
     <row r="1198">
       <c r="A1198" s="1" t="inlineStr">
         <is>
-          <t>technology integration</t>
+          <t>account information system</t>
         </is>
       </c>
       <c r="B1198" t="n">
@@ -30390,7 +30390,7 @@
     <row r="1199">
       <c r="A1199" s="1" t="inlineStr">
         <is>
-          <t>account information system</t>
+          <t>systematic map study</t>
         </is>
       </c>
       <c r="B1199" t="n">
@@ -30415,7 +30415,7 @@
     <row r="1200">
       <c r="A1200" s="1" t="inlineStr">
         <is>
-          <t>systematic map study</t>
+          <t>account</t>
         </is>
       </c>
       <c r="B1200" t="n">
@@ -30440,7 +30440,7 @@
     <row r="1201">
       <c r="A1201" s="1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>fraud</t>
         </is>
       </c>
       <c r="B1201" t="n">
@@ -30465,7 +30465,7 @@
     <row r="1202">
       <c r="A1202" s="1" t="inlineStr">
         <is>
-          <t>fraud</t>
+          <t>learn object</t>
         </is>
       </c>
       <c r="B1202" t="n">
@@ -30490,7 +30490,7 @@
     <row r="1203">
       <c r="A1203" s="1" t="inlineStr">
         <is>
-          <t>learn object</t>
+          <t>adaptive learn</t>
         </is>
       </c>
       <c r="B1203" t="n">
@@ -30515,7 +30515,7 @@
     <row r="1204">
       <c r="A1204" s="1" t="inlineStr">
         <is>
-          <t>adaptive learn</t>
+          <t>curriculum design</t>
         </is>
       </c>
       <c r="B1204" t="n">
@@ -30540,7 +30540,7 @@
     <row r="1205">
       <c r="A1205" s="1" t="inlineStr">
         <is>
-          <t>curriculum design</t>
+          <t>smart-contracts</t>
         </is>
       </c>
       <c r="B1205" t="n">
@@ -30565,11 +30565,11 @@
     <row r="1206">
       <c r="A1206" s="1" t="inlineStr">
         <is>
-          <t>smart-contracts</t>
+          <t>stride</t>
         </is>
       </c>
       <c r="B1206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1206" t="n">
         <v>0</v>
@@ -30584,13 +30584,13 @@
         <v>0</v>
       </c>
       <c r="G1206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207">
       <c r="A1207" s="1" t="inlineStr">
         <is>
-          <t>stride</t>
+          <t>linddun</t>
         </is>
       </c>
       <c r="B1207" t="n">
@@ -30615,7 +30615,7 @@
     <row r="1208">
       <c r="A1208" s="1" t="inlineStr">
         <is>
-          <t>linddun</t>
+          <t>construction</t>
         </is>
       </c>
       <c r="B1208" t="n">
@@ -30640,11 +30640,11 @@
     <row r="1209">
       <c r="A1209" s="1" t="inlineStr">
         <is>
-          <t>construction</t>
+          <t>uav security</t>
         </is>
       </c>
       <c r="B1209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1209" t="n">
         <v>0</v>
@@ -30659,13 +30659,13 @@
         <v>0</v>
       </c>
       <c r="G1209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" s="1" t="inlineStr">
         <is>
-          <t>uav security</t>
+          <t>uav</t>
         </is>
       </c>
       <c r="B1210" t="n">
@@ -30690,7 +30690,7 @@
     <row r="1211">
       <c r="A1211" s="1" t="inlineStr">
         <is>
-          <t>uav</t>
+          <t>uaanet</t>
         </is>
       </c>
       <c r="B1211" t="n">
@@ -30715,7 +30715,7 @@
     <row r="1212">
       <c r="A1212" s="1" t="inlineStr">
         <is>
-          <t>uaanet</t>
+          <t>manet</t>
         </is>
       </c>
       <c r="B1212" t="n">
@@ -30740,7 +30740,7 @@
     <row r="1213">
       <c r="A1213" s="1" t="inlineStr">
         <is>
-          <t>manet</t>
+          <t>health 4.0</t>
         </is>
       </c>
       <c r="B1213" t="n">
@@ -30765,11 +30765,11 @@
     <row r="1214">
       <c r="A1214" s="1" t="inlineStr">
         <is>
-          <t>health 4.0</t>
+          <t>crypto asset</t>
         </is>
       </c>
       <c r="B1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1214" t="n">
         <v>0</v>
@@ -30784,13 +30784,13 @@
         <v>0</v>
       </c>
       <c r="G1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" s="1" t="inlineStr">
         <is>
-          <t>crypto asset</t>
+          <t>poison attack</t>
         </is>
       </c>
       <c r="B1215" t="n">
@@ -30815,11 +30815,11 @@
     <row r="1216">
       <c r="A1216" s="1" t="inlineStr">
         <is>
-          <t>poison attack</t>
+          <t>patient-centred</t>
         </is>
       </c>
       <c r="B1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1216" t="n">
         <v>0</v>
@@ -30834,13 +30834,13 @@
         <v>0</v>
       </c>
       <c r="G1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" s="1" t="inlineStr">
         <is>
-          <t>patient-centred</t>
+          <t>footwear</t>
         </is>
       </c>
       <c r="B1217" t="n">
@@ -30865,7 +30865,7 @@
     <row r="1218">
       <c r="A1218" s="1" t="inlineStr">
         <is>
-          <t>footwear</t>
+          <t>tow matrix</t>
         </is>
       </c>
       <c r="B1218" t="n">
@@ -30890,7 +30890,7 @@
     <row r="1219">
       <c r="A1219" s="1" t="inlineStr">
         <is>
-          <t>tow matrix</t>
+          <t>diffusion of innovation</t>
         </is>
       </c>
       <c r="B1219" t="n">
@@ -30915,7 +30915,7 @@
     <row r="1220">
       <c r="A1220" s="1" t="inlineStr">
         <is>
-          <t>diffusion of innovation</t>
+          <t>competitive position</t>
         </is>
       </c>
       <c r="B1220" t="n">
@@ -30940,11 +30940,11 @@
     <row r="1221">
       <c r="A1221" s="1" t="inlineStr">
         <is>
-          <t>competitive position</t>
+          <t>certificate authority</t>
         </is>
       </c>
       <c r="B1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1221" t="n">
         <v>0</v>
@@ -30959,13 +30959,13 @@
         <v>0</v>
       </c>
       <c r="G1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" s="1" t="inlineStr">
         <is>
-          <t>certificate authority</t>
+          <t>public key infrastructure</t>
         </is>
       </c>
       <c r="B1222" t="n">
@@ -30990,7 +30990,7 @@
     <row r="1223">
       <c r="A1223" s="1" t="inlineStr">
         <is>
-          <t>public key infrastructure</t>
+          <t>partition</t>
         </is>
       </c>
       <c r="B1223" t="n">
@@ -31015,11 +31015,11 @@
     <row r="1224">
       <c r="A1224" s="1" t="inlineStr">
         <is>
-          <t>partition</t>
+          <t>stalker attack</t>
         </is>
       </c>
       <c r="B1224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1224" t="n">
         <v>0</v>
@@ -31034,17 +31034,17 @@
         <v>0</v>
       </c>
       <c r="G1224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" s="1" t="inlineStr">
         <is>
-          <t>stalker attack</t>
+          <t>bank industry</t>
         </is>
       </c>
       <c r="B1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1225" t="n">
         <v>0</v>
@@ -31059,13 +31059,13 @@
         <v>0</v>
       </c>
       <c r="G1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" s="1" t="inlineStr">
         <is>
-          <t>bank industry</t>
+          <t>bigdata analytics</t>
         </is>
       </c>
       <c r="B1226" t="n">
@@ -31090,7 +31090,7 @@
     <row r="1227">
       <c r="A1227" s="1" t="inlineStr">
         <is>
-          <t>bigdata analytics</t>
+          <t>smart learn environment</t>
         </is>
       </c>
       <c r="B1227" t="n">
@@ -31115,7 +31115,7 @@
     <row r="1228">
       <c r="A1228" s="1" t="inlineStr">
         <is>
-          <t>smart learn environment</t>
+          <t>open learn ecosystem</t>
         </is>
       </c>
       <c r="B1228" t="n">
@@ -31140,7 +31140,7 @@
     <row r="1229">
       <c r="A1229" s="1" t="inlineStr">
         <is>
-          <t>open learn ecosystem</t>
+          <t>inclusion</t>
         </is>
       </c>
       <c r="B1229" t="n">
@@ -31165,7 +31165,7 @@
     <row r="1230">
       <c r="A1230" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>service</t>
         </is>
       </c>
       <c r="B1230" t="n">
@@ -31190,7 +31190,7 @@
     <row r="1231">
       <c r="A1231" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>civil registration</t>
         </is>
       </c>
       <c r="B1231" t="n">
@@ -31215,11 +31215,11 @@
     <row r="1232">
       <c r="A1232" s="1" t="inlineStr">
         <is>
-          <t>civil registration</t>
+          <t>hospitality</t>
         </is>
       </c>
       <c r="B1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1232" t="n">
         <v>0</v>
@@ -31234,13 +31234,13 @@
         <v>0</v>
       </c>
       <c r="G1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" s="1" t="inlineStr">
         <is>
-          <t>hospitality</t>
+          <t>network science</t>
         </is>
       </c>
       <c r="B1233" t="n">
@@ -31265,7 +31265,7 @@
     <row r="1234">
       <c r="A1234" s="1" t="inlineStr">
         <is>
-          <t>network science</t>
+          <t>tourism management</t>
         </is>
       </c>
       <c r="B1234" t="n">
@@ -31290,7 +31290,7 @@
     <row r="1235">
       <c r="A1235" s="1" t="inlineStr">
         <is>
-          <t>tourism management</t>
+          <t>competitive advantage</t>
         </is>
       </c>
       <c r="B1235" t="n">
@@ -31315,11 +31315,11 @@
     <row r="1236">
       <c r="A1236" s="1" t="inlineStr">
         <is>
-          <t>competitive advantage</t>
+          <t>bpmn</t>
         </is>
       </c>
       <c r="B1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1236" t="n">
         <v>0</v>
@@ -31334,13 +31334,13 @@
         <v>0</v>
       </c>
       <c r="G1236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237">
       <c r="A1237" s="1" t="inlineStr">
         <is>
-          <t>bpmn</t>
+          <t>temporal constraint</t>
         </is>
       </c>
       <c r="B1237" t="n">
@@ -31365,7 +31365,7 @@
     <row r="1238">
       <c r="A1238" s="1" t="inlineStr">
         <is>
-          <t>temporal constraint</t>
+          <t>process choreography</t>
         </is>
       </c>
       <c r="B1238" t="n">
@@ -31390,7 +31390,7 @@
     <row r="1239">
       <c r="A1239" s="1" t="inlineStr">
         <is>
-          <t>process choreography</t>
+          <t>reusability</t>
         </is>
       </c>
       <c r="B1239" t="n">
@@ -31415,7 +31415,7 @@
     <row r="1240">
       <c r="A1240" s="1" t="inlineStr">
         <is>
-          <t>reusability</t>
+          <t>thematic analysis</t>
         </is>
       </c>
       <c r="B1240" t="n">
@@ -31440,7 +31440,7 @@
     <row r="1241">
       <c r="A1241" s="1" t="inlineStr">
         <is>
-          <t>thematic analysis</t>
+          <t>edge ai</t>
         </is>
       </c>
       <c r="B1241" t="n">
@@ -31465,7 +31465,7 @@
     <row r="1242">
       <c r="A1242" s="1" t="inlineStr">
         <is>
-          <t>edge ai</t>
+          <t>u-health</t>
         </is>
       </c>
       <c r="B1242" t="n">
@@ -31490,7 +31490,7 @@
     <row r="1243">
       <c r="A1243" s="1" t="inlineStr">
         <is>
-          <t>u-health</t>
+          <t>ecg monitor</t>
         </is>
       </c>
       <c r="B1243" t="n">
@@ -31515,7 +31515,7 @@
     <row r="1244">
       <c r="A1244" s="1" t="inlineStr">
         <is>
-          <t>ecg monitor</t>
+          <t>ecg feature extraction</t>
         </is>
       </c>
       <c r="B1244" t="n">
@@ -31540,7 +31540,7 @@
     <row r="1245">
       <c r="A1245" s="1" t="inlineStr">
         <is>
-          <t>ecg feature extraction</t>
+          <t>ubiquitous health</t>
         </is>
       </c>
       <c r="B1245" t="n">
@@ -31565,7 +31565,7 @@
     <row r="1246">
       <c r="A1246" s="1" t="inlineStr">
         <is>
-          <t>ubiquitous health</t>
+          <t>byzantine general problem</t>
         </is>
       </c>
       <c r="B1246" t="n">
@@ -31590,7 +31590,7 @@
     <row r="1247">
       <c r="A1247" s="1" t="inlineStr">
         <is>
-          <t>byzantine general problem</t>
+          <t>censorship resistance</t>
         </is>
       </c>
       <c r="B1247" t="n">
@@ -31615,7 +31615,7 @@
     <row r="1248">
       <c r="A1248" s="1" t="inlineStr">
         <is>
-          <t>censorship resistance</t>
+          <t>double spending</t>
         </is>
       </c>
       <c r="B1248" t="n">
@@ -31640,7 +31640,7 @@
     <row r="1249">
       <c r="A1249" s="1" t="inlineStr">
         <is>
-          <t>double spending</t>
+          <t>exchange rate indeterminacy</t>
         </is>
       </c>
       <c r="B1249" t="n">
@@ -31665,7 +31665,7 @@
     <row r="1250">
       <c r="A1250" s="1" t="inlineStr">
         <is>
-          <t>exchange rate indeterminacy</t>
+          <t>mining pool</t>
         </is>
       </c>
       <c r="B1250" t="n">
@@ -31690,7 +31690,7 @@
     <row r="1251">
       <c r="A1251" s="1" t="inlineStr">
         <is>
-          <t>mining pool</t>
+          <t>new monetary economics</t>
         </is>
       </c>
       <c r="B1251" t="n">
@@ -31715,7 +31715,7 @@
     <row r="1252">
       <c r="A1252" s="1" t="inlineStr">
         <is>
-          <t>new monetary economics</t>
+          <t>open source</t>
         </is>
       </c>
       <c r="B1252" t="n">
@@ -31740,7 +31740,7 @@
     <row r="1253">
       <c r="A1253" s="1" t="inlineStr">
         <is>
-          <t>open source</t>
+          <t>pseudonymity</t>
         </is>
       </c>
       <c r="B1253" t="n">
@@ -31765,7 +31765,7 @@
     <row r="1254">
       <c r="A1254" s="1" t="inlineStr">
         <is>
-          <t>pseudonymity</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="B1254" t="n">
@@ -31790,11 +31790,11 @@
     <row r="1255">
       <c r="A1255" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>5g network</t>
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1255" t="n">
         <v>0</v>
@@ -31809,13 +31809,13 @@
         <v>0</v>
       </c>
       <c r="G1255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256">
       <c r="A1256" s="1" t="inlineStr">
         <is>
-          <t>5g network</t>
+          <t>5g internet of thing</t>
         </is>
       </c>
       <c r="B1256" t="n">
@@ -31840,7 +31840,7 @@
     <row r="1257">
       <c r="A1257" s="1" t="inlineStr">
         <is>
-          <t>5g internet of thing</t>
+          <t>5g service</t>
         </is>
       </c>
       <c r="B1257" t="n">
@@ -31859,31 +31859,6 @@
         <v>0</v>
       </c>
       <c r="G1257" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" s="1" t="inlineStr">
-        <is>
-          <t>5g service</t>
-        </is>
-      </c>
-      <c r="B1258" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1258" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1258" t="n">
         <v>2</v>
       </c>
     </row>
